--- a/Matlab sim.xlsx
+++ b/Matlab sim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebreg\Documents\GitHub\ENAE100-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB678128-3BAD-4107-86AA-A4B856785F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CD56A1-9180-4350-8671-2BF39921CBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{D766DF1C-EE03-4483-8054-A60018FFF165}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452A2BAB-407E-4BD2-AE96-59A4BB341ECA}">
-  <dimension ref="A4:C333"/>
+  <dimension ref="A4:C668"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A5" sqref="A5:A668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1296,2741 +1296,6426 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85">
-        <v>10.580345963608799</v>
+        <v>10.5514565495775</v>
       </c>
       <c r="B85">
-        <v>557.03323442505598</v>
+        <v>557.42240356541095</v>
       </c>
       <c r="C85">
-        <v>-13.606535981082899</v>
+        <v>-13.3353727141329</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86">
-        <v>10.6352534550157</v>
+        <v>10.577474626953</v>
       </c>
       <c r="B86">
-        <v>556.27201349658901</v>
+        <v>557.07226471331001</v>
       </c>
       <c r="C86">
-        <v>-14.120564284282001</v>
+        <v>-13.5796065047965</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87">
-        <v>10.6901609464225</v>
+        <v>10.603492704328501</v>
       </c>
       <c r="B87">
-        <v>555.48261814769296</v>
+        <v>556.71577647311904</v>
       </c>
       <c r="C87">
-        <v>-14.632776495675101</v>
+        <v>-13.823446753493499</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88">
-        <v>10.745068437829399</v>
+        <v>10.629510781704001</v>
       </c>
       <c r="B88">
-        <v>554.66514972331299</v>
+        <v>556.35294916780197</v>
       </c>
       <c r="C88">
-        <v>-15.1431132170887</v>
+        <v>-14.0668870167487</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89">
-        <v>10.799975929236201</v>
+        <v>10.655528859079499</v>
       </c>
       <c r="B89">
-        <v>553.819712819914</v>
+        <v>555.98379328774604</v>
       </c>
       <c r="C89">
-        <v>-15.6515159504868</v>
+        <v>-14.309920894727901</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90">
-        <v>10.854883420643</v>
+        <v>10.681546936455</v>
       </c>
       <c r="B90">
-        <v>552.94641522012705</v>
+        <v>555.60831948925204</v>
       </c>
       <c r="C90">
-        <v>-16.157927128371099</v>
+        <v>-14.552542031992999</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91">
-        <v>10.9097909120499</v>
+        <v>10.7075650138306</v>
       </c>
       <c r="B91">
-        <v>552.04536782514197</v>
+        <v>555.22653859304</v>
       </c>
       <c r="C91">
-        <v>-16.662290142448398</v>
+        <v>-14.794744118276499</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92">
-        <v>10.964698403456699</v>
+        <v>10.7335830912061</v>
       </c>
       <c r="B92">
-        <v>551.11668461894499</v>
+        <v>554.83846158344102</v>
       </c>
       <c r="C92">
-        <v>-17.164549359229301</v>
+        <v>-15.036520888896501</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93">
-        <v>10.9921521491601</v>
+        <v>10.759263670704801</v>
       </c>
       <c r="B93">
-        <v>550.63901889276201</v>
+        <v>554.44925532711</v>
       </c>
       <c r="C93">
-        <v>-17.554750880460301</v>
+        <v>-15.2747382634912</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94">
-        <v>11.019605894863499</v>
+        <v>10.7849442502035</v>
       </c>
       <c r="B94">
-        <v>550.156772560033</v>
+        <v>554.05393697248905</v>
       </c>
       <c r="C94">
-        <v>-17.596616879186101</v>
+        <v>-15.5125292911807</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95">
-        <v>11.047059640566999</v>
+        <v>10.810624829702199</v>
       </c>
       <c r="B95">
-        <v>549.68277552371205</v>
+        <v>553.65251754395501</v>
       </c>
       <c r="C95">
-        <v>-16.9202440662784</v>
+        <v>-15.7498880816767</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96">
-        <v>11.0745133862704</v>
+        <v>10.8363054092009</v>
       </c>
       <c r="B96">
-        <v>549.23038722526906</v>
+        <v>553.24500821659694</v>
       </c>
       <c r="C96">
-        <v>-15.9176238623643</v>
+        <v>-15.9868087900219</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97">
-        <v>11.101967131973799</v>
+        <v>10.861985988699599</v>
       </c>
       <c r="B97">
-        <v>548.80443852114104</v>
+        <v>552.83142031537704</v>
       </c>
       <c r="C97">
-        <v>-15.128318092178</v>
+        <v>-16.223285616919199</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98">
-        <v>11.1294208776772</v>
+        <v>10.8876665681983</v>
       </c>
       <c r="B98">
-        <v>548.39878396159997</v>
+        <v>552.41176531355904</v>
       </c>
       <c r="C98">
-        <v>-14.4375640700364</v>
+        <v>-16.459312809339401</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99">
-        <v>11.156874623380601</v>
+        <v>10.913347147696999</v>
       </c>
       <c r="B99">
-        <v>548.01096467058699</v>
+        <v>551.98605483118797</v>
       </c>
       <c r="C99">
-        <v>-13.8294254375633</v>
+        <v>-16.694884661146101</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100">
-        <v>11.184328369084101</v>
+        <v>10.9390277271957</v>
       </c>
       <c r="B100">
-        <v>547.63885375582004</v>
+        <v>551.55430063427104</v>
       </c>
       <c r="C100">
-        <v>-13.2908164421231</v>
+        <v>-16.929995513430001</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101">
-        <v>11.2383164019215</v>
+        <v>10.951868016945101</v>
       </c>
       <c r="B101">
-        <v>546.94605289558797</v>
+        <v>551.33616085951098</v>
       </c>
       <c r="C101">
-        <v>-12.394990066125599</v>
+        <v>-17.047376309300599</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102">
-        <v>11.292304434758901</v>
+        <v>10.9647083066944</v>
       </c>
       <c r="B102">
-        <v>546.29681883445096</v>
+        <v>551.116514633988</v>
       </c>
       <c r="C102">
-        <v>-11.6740196376893</v>
+        <v>-17.164639754773201</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103">
-        <v>11.3462924675962</v>
+        <v>10.9775485964438</v>
       </c>
       <c r="B103">
-        <v>545.68315808273701</v>
+        <v>550.89536346896898</v>
       </c>
       <c r="C103">
-        <v>-11.088223018538301</v>
+        <v>-17.281785155953202</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104">
-        <v>11.400280500433601</v>
+        <v>10.990388886193101</v>
       </c>
       <c r="B104">
-        <v>545.09826226349003</v>
+        <v>550.67270888460905</v>
       </c>
       <c r="C104">
-        <v>-10.603952463819899</v>
+        <v>-17.398811821979798</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105">
-        <v>11.466368625705799</v>
+        <v>10.997015823577</v>
       </c>
       <c r="B105">
-        <v>544.413936634322</v>
+        <v>550.55677621377595</v>
       </c>
       <c r="C105">
-        <v>-10.1162119703909</v>
+        <v>-17.547008286634899</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106">
-        <v>11.5324567509779</v>
+        <v>11.003642760961</v>
       </c>
       <c r="B106">
-        <v>543.75866955528204</v>
+        <v>550.44073892419397</v>
       </c>
       <c r="C106">
-        <v>-9.7232582057764194</v>
+        <v>-17.4874709240963</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107">
-        <v>11.5985448762501</v>
+        <v>11.010269698344899</v>
       </c>
       <c r="B107">
-        <v>543.12713854132096</v>
+        <v>550.326458319278</v>
       </c>
       <c r="C107">
-        <v>-9.4049277231703599</v>
+        <v>-16.989365922590501</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108">
-        <v>11.664633001522301</v>
+        <v>11.0168966357288</v>
       </c>
       <c r="B108">
-        <v>542.51468619897105</v>
+        <v>550.21595934049196</v>
       </c>
       <c r="C108">
-        <v>-9.1438393153164998</v>
+        <v>-16.280865424245199</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109">
-        <v>11.7492481331396</v>
+        <v>11.023523573112699</v>
       </c>
       <c r="B109">
-        <v>541.75262457902204</v>
+        <v>550.11007344480902</v>
       </c>
       <c r="C109">
-        <v>-8.8732875881970603</v>
+        <v>-15.6832334406197</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110">
-        <v>11.833863264756999</v>
+        <v>11.0301505104966</v>
       </c>
       <c r="B110">
-        <v>541.01096627277605</v>
+        <v>550.00799095217701</v>
       </c>
       <c r="C110">
-        <v>-8.6610306495063103</v>
+        <v>-15.132358640431001</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111">
-        <v>11.918478396374301</v>
+        <v>11.036777447880599</v>
       </c>
       <c r="B111">
-        <v>540.28564171642302</v>
+        <v>549.909419816737</v>
       </c>
       <c r="C111">
-        <v>-8.4944680595481792</v>
+        <v>-14.623122524266</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112">
-        <v>12.0030935279917</v>
+        <v>11.0434043852645</v>
       </c>
       <c r="B112">
-        <v>539.57293082248395</v>
+        <v>549.81409731219401</v>
       </c>
       <c r="C112">
-        <v>-8.3620589992101593</v>
+        <v>-14.1510971357727</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113">
-        <v>12.1076501278144</v>
+        <v>11.0645370988418</v>
       </c>
       <c r="B113">
-        <v>538.70540397456296</v>
+        <v>549.529131210213</v>
       </c>
       <c r="C113">
-        <v>-8.2330982733000297</v>
+        <v>-12.8506485347627</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114">
-        <v>12.212206727637099</v>
+        <v>11.0856698124191</v>
       </c>
       <c r="B114">
-        <v>537.849721472488</v>
+        <v>549.26891791756202</v>
       </c>
       <c r="C114">
-        <v>-8.135447912019</v>
+        <v>-11.8034780589952</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115">
-        <v>12.3167633274598</v>
+        <v>11.1068025259964</v>
       </c>
       <c r="B115">
-        <v>537.00332628601905</v>
+        <v>549.02893499813001</v>
       </c>
       <c r="C115">
-        <v>-8.0621238486326607</v>
+        <v>-10.9481169332224</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116">
-        <v>12.421319927282401</v>
+        <v>11.1279352395737</v>
       </c>
       <c r="B116">
-        <v>536.16368975379305</v>
+        <v>548.80546440471096</v>
       </c>
       <c r="C116">
-        <v>-8.0061230130424992</v>
+        <v>-10.2330768580245</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117">
-        <v>12.549740574193899</v>
+        <v>11.153605520765399</v>
       </c>
       <c r="B117">
-        <v>535.13883284295105</v>
+        <v>548.55232992899403</v>
       </c>
       <c r="C117">
-        <v>-7.9534596414294301</v>
+        <v>-9.50625535954903</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118">
-        <v>12.6781612211054</v>
+        <v>11.1792758019571</v>
       </c>
       <c r="B118">
-        <v>534.11980340904995</v>
+        <v>548.31618614959905</v>
       </c>
       <c r="C118">
-        <v>-7.9155813711695</v>
+        <v>-8.9070739416096991</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119">
-        <v>12.806581868016799</v>
+        <v>11.204946083148799</v>
       </c>
       <c r="B119">
-        <v>533.10528290788898</v>
+        <v>548.09420200319698</v>
       </c>
       <c r="C119">
-        <v>-7.8890982103080898</v>
+        <v>-8.4077989207383705</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120">
-        <v>12.9350025149283</v>
+        <v>11.2306163643406</v>
       </c>
       <c r="B120">
-        <v>532.09371812542201</v>
+        <v>547.88399622143697</v>
       </c>
       <c r="C120">
-        <v>-7.86994422548781</v>
+        <v>-7.9858068277161101</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121">
-        <v>13.094140506156799</v>
+        <v>11.2654903700881</v>
       </c>
       <c r="B121">
-        <v>530.84257969626196</v>
+        <v>547.61401586792601</v>
       </c>
       <c r="C121">
-        <v>-7.8519602198994001</v>
+        <v>-7.5084321369935001</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122">
-        <v>13.253278497385301</v>
+        <v>11.300364375835599</v>
       </c>
       <c r="B122">
-        <v>529.59385590926104</v>
+        <v>547.35910047906805</v>
       </c>
       <c r="C122">
-        <v>-7.8398823035178902</v>
+        <v>-7.1204285284059301</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123">
-        <v>13.4124164886138</v>
+        <v>11.335238381583199</v>
       </c>
       <c r="B123">
-        <v>528.34705832086604</v>
+        <v>547.11658423306096</v>
       </c>
       <c r="C123">
-        <v>-7.8324821299994998</v>
+        <v>-6.8023963382459698</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124">
-        <v>13.5715544798423</v>
+        <v>11.3701123873307</v>
       </c>
       <c r="B124">
-        <v>527.101292688988</v>
+        <v>546.88418382851796</v>
       </c>
       <c r="C124">
-        <v>-7.8274783685171601</v>
+        <v>-6.5380488785792599</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125">
-        <v>13.7742747946699</v>
+        <v>11.415084363024601</v>
       </c>
       <c r="B125">
-        <v>525.51485994821098</v>
+        <v>546.59658354490296</v>
       </c>
       <c r="C125">
-        <v>-7.8220669281664801</v>
+        <v>-6.2580804025885799</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126">
-        <v>13.9769951094975</v>
+        <v>11.460056338718401</v>
       </c>
       <c r="B126">
-        <v>523.92934525221403</v>
+        <v>546.32030129170698</v>
       </c>
       <c r="C126">
-        <v>-7.818657044499</v>
+        <v>-6.0339870779065699</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127">
-        <v>14.179715424325099</v>
+        <v>11.5050283144123</v>
       </c>
       <c r="B127">
-        <v>522.344692780674</v>
+        <v>546.05321564148699</v>
       </c>
       <c r="C127">
-        <v>-7.8171096815987298</v>
+        <v>-5.8538046262618098</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128">
-        <v>14.382435739152699</v>
+        <v>11.5500002901061</v>
       </c>
       <c r="B128">
-        <v>520.76036075019999</v>
+        <v>545.79345530258695</v>
       </c>
       <c r="C128">
-        <v>-7.8160587729886899</v>
+        <v>-5.7070855620670304</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129">
-        <v>14.651623913727301</v>
+        <v>11.606661258661701</v>
       </c>
       <c r="B129">
-        <v>518.65644180479705</v>
+        <v>545.47436822382997</v>
       </c>
       <c r="C129">
-        <v>-7.8138913155646801</v>
+        <v>-5.5583024791772502</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130">
-        <v>14.920812088301901</v>
+        <v>11.6633222272173</v>
       </c>
       <c r="B130">
-        <v>516.55302927147795</v>
+        <v>545.16277445099297</v>
       </c>
       <c r="C130">
-        <v>-7.8124563945493497</v>
+        <v>-5.4423226977304697</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131">
-        <v>15.1900002628766</v>
+        <v>11.7199831957728</v>
       </c>
       <c r="B131">
-        <v>514.45024544608998</v>
+        <v>544.85715316825701</v>
       </c>
       <c r="C131">
-        <v>-7.8120610191616997</v>
+        <v>-5.3520254928556499</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132">
-        <v>15.4591884374512</v>
+        <v>11.776644164328401</v>
       </c>
       <c r="B132">
-        <v>512.34764945369795</v>
+        <v>544.55609686080902</v>
       </c>
       <c r="C132">
-        <v>-7.8115980771531603</v>
+        <v>-5.2807898238178499</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133">
-        <v>15.826503358738</v>
+        <v>11.8465775387512</v>
       </c>
       <c r="B133">
-        <v>509.47821949522501</v>
+        <v>544.18920398681905</v>
       </c>
       <c r="C133">
-        <v>-7.8091490689026202</v>
+        <v>-5.2119507005110801</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134">
-        <v>16.1938182800248</v>
+        <v>11.9165109131741</v>
       </c>
       <c r="B134">
-        <v>506.60955261219499</v>
+        <v>543.82652265439799</v>
       </c>
       <c r="C134">
-        <v>-7.8076133679391004</v>
+        <v>-5.1603632741061798</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135">
-        <v>16.561133201311598</v>
+        <v>11.986444287596999</v>
       </c>
       <c r="B135">
-        <v>503.74206271486503</v>
+        <v>543.46712772319995</v>
       </c>
       <c r="C135">
-        <v>-7.8080292886931497</v>
+        <v>-5.1221454137100304</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136">
-        <v>16.9284481225984</v>
+        <v>12.0563776620198</v>
       </c>
       <c r="B136">
-        <v>500.874735740387</v>
+        <v>543.11007976129804</v>
       </c>
       <c r="C136">
-        <v>-7.8078519577423</v>
+        <v>-5.0932933962104103</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137">
-        <v>17.363820578676901</v>
+        <v>12.142284895689</v>
       </c>
       <c r="B137">
-        <v>497.47366720151598</v>
+        <v>542.67364287951398</v>
       </c>
       <c r="C137">
-        <v>-7.8001634555406101</v>
+        <v>-5.0663372788977403</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138">
-        <v>17.799193034755501</v>
+        <v>12.228192129358201</v>
       </c>
       <c r="B138">
-        <v>494.07502094143598</v>
+        <v>542.23919039728298</v>
       </c>
       <c r="C138">
-        <v>-7.7971430428169999</v>
+        <v>-5.0472504099647502</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139">
-        <v>18.234565490834001</v>
+        <v>12.314099363027401</v>
       </c>
       <c r="B139">
-        <v>490.68127358186501</v>
+        <v>541.80627155383104</v>
       </c>
       <c r="C139">
-        <v>-7.8049749520554599</v>
+        <v>-5.0342333831309496</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A140">
-        <v>18.669937946912601</v>
+        <v>12.4000065966965</v>
       </c>
       <c r="B140">
-        <v>487.286379927908</v>
+        <v>541.37432123151098</v>
       </c>
       <c r="C140">
-        <v>-7.8085149228082704</v>
+        <v>-5.0249903888472902</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A141">
-        <v>18.939729887690898</v>
+        <v>12.506961517879899</v>
       </c>
       <c r="B141">
-        <v>485.17967326073699</v>
+        <v>540.83727049878701</v>
       </c>
       <c r="C141">
-        <v>-7.8025978421754498</v>
+        <v>-5.0162568306471904</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A142">
-        <v>19.2095218284692</v>
+        <v>12.613916439063299</v>
       </c>
       <c r="B142">
-        <v>483.074272692161</v>
+        <v>540.30100162578503</v>
       </c>
       <c r="C142">
-        <v>-7.7994316968248203</v>
+        <v>-5.0105498519715299</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A143">
-        <v>19.479313769247501</v>
+        <v>12.720871360246599</v>
       </c>
       <c r="B143">
-        <v>480.97064135641898</v>
+        <v>539.765365376511</v>
       </c>
       <c r="C143">
-        <v>-7.8001780946862596</v>
+        <v>-5.0072838086143197</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A144">
-        <v>19.749105710025901</v>
+        <v>12.827826281429999</v>
       </c>
       <c r="B144">
-        <v>478.86711861666799</v>
+        <v>539.23003668725096</v>
       </c>
       <c r="C144">
-        <v>-7.8006515838357799</v>
+        <v>-5.00516680141068</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A145">
-        <v>20.018897650804199</v>
+        <v>12.965190359033199</v>
       </c>
       <c r="B145">
-        <v>476.76262440864599</v>
+        <v>538.54259539113195</v>
       </c>
       <c r="C145">
-        <v>-7.79813466295293</v>
+        <v>-5.0027092549273799</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A146">
-        <v>20.2886895915825</v>
+        <v>13.1025544366364</v>
       </c>
       <c r="B146">
-        <v>474.65871195101698</v>
+        <v>537.85543237201705</v>
       </c>
       <c r="C146">
-        <v>-7.79654181196062</v>
+        <v>-5.0012547133848297</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A147">
-        <v>20.558481532360801</v>
+        <v>13.2399185142396</v>
       </c>
       <c r="B147">
-        <v>472.55553879414299</v>
+        <v>537.16854650836001</v>
       </c>
       <c r="C147">
-        <v>-7.7962692094333699</v>
+        <v>-5.0007990829729296</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A148">
-        <v>20.828273473139198</v>
+        <v>13.3772825918428</v>
       </c>
       <c r="B148">
-        <v>470.45254394321699</v>
+        <v>536.48173392843603</v>
       </c>
       <c r="C148">
-        <v>-7.7959049719775901</v>
+        <v>-5.0005401326970302</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A149">
-        <v>21.178873707278701</v>
+        <v>13.561450163573101</v>
       </c>
       <c r="B149">
-        <v>467.71919558871701</v>
+        <v>535.56078652382701</v>
       </c>
       <c r="C149">
-        <v>-7.7934613397311496</v>
+        <v>-4.9995787065603698</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A150">
-        <v>21.529473941418299</v>
+        <v>13.745617735303499</v>
       </c>
       <c r="B150">
-        <v>464.98657554218101</v>
+        <v>534.63998663953396</v>
       </c>
       <c r="C150">
-        <v>-7.7919394107098796</v>
+        <v>-4.9990345542570704</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A151">
-        <v>21.880074175557901</v>
+        <v>13.929785307033899</v>
       </c>
       <c r="B151">
-        <v>462.255070933171</v>
+        <v>533.71939646835904</v>
       </c>
       <c r="C151">
-        <v>-7.7923122190675898</v>
+        <v>-4.9991513864613903</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A152">
-        <v>22.2306744096974</v>
+        <v>14.1139528787642</v>
       </c>
       <c r="B152">
-        <v>459.52371946410102</v>
+        <v>532.79882580209198</v>
       </c>
       <c r="C152">
-        <v>-7.7921597184790103</v>
+        <v>-4.9991831251984102</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A153">
-        <v>22.6481636819478</v>
+        <v>14.3634256532973</v>
       </c>
       <c r="B153">
-        <v>456.26935489495298</v>
+        <v>531.55151029054002</v>
       </c>
       <c r="C153">
-        <v>-7.7859911737402996</v>
+        <v>-4.9977401342579002</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A154">
-        <v>23.0656529541981</v>
+        <v>14.6128984278303</v>
       </c>
       <c r="B154">
-        <v>453.01691131272702</v>
+        <v>530.30447165745295</v>
       </c>
       <c r="C154">
-        <v>-7.7833628702381796</v>
+        <v>-4.99708671343876</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A155">
-        <v>23.4831422264484</v>
+        <v>14.8623712023634</v>
       </c>
       <c r="B155">
-        <v>449.76822138476598</v>
+        <v>529.05795681897098</v>
       </c>
       <c r="C155">
-        <v>-7.7888659394737001</v>
+        <v>-4.9981894895466397</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A156">
-        <v>23.900631498698701</v>
+        <v>15.111843976896401</v>
       </c>
       <c r="B156">
-        <v>446.51883344493598</v>
+        <v>527.81136644818901</v>
       </c>
       <c r="C156">
-        <v>-7.7913185656503599</v>
+        <v>-4.99869966037007</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A157">
-        <v>24.184738831381502</v>
+        <v>15.3324505389187</v>
       </c>
       <c r="B157">
-        <v>444.30512584952697</v>
+        <v>526.70842955595003</v>
       </c>
       <c r="C157">
-        <v>-7.78608982310391</v>
+        <v>-4.9966015237038599</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A158">
-        <v>24.4688461640642</v>
+        <v>15.553057100941</v>
       </c>
       <c r="B158">
-        <v>442.09263325030099</v>
+        <v>525.60585283252999</v>
       </c>
       <c r="C158">
-        <v>-7.7833295962254798</v>
+        <v>-4.9956851120615999</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A159">
-        <v>24.752953496746901</v>
+        <v>15.773663662963299</v>
       </c>
       <c r="B159">
-        <v>439.88190079115998</v>
+        <v>524.50394292013698</v>
       </c>
       <c r="C159">
-        <v>-7.7844072089941001</v>
+        <v>-4.9971496684234902</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A160">
-        <v>25.037060829429699</v>
+        <v>15.9942702249856</v>
       </c>
       <c r="B160">
-        <v>437.67122304360601</v>
+        <v>523.40193119727599</v>
       </c>
       <c r="C160">
-        <v>-7.7850208586311798</v>
+        <v>-4.99798211384969</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A161">
-        <v>25.3211681621124</v>
+        <v>16.2148767870078</v>
       </c>
       <c r="B161">
-        <v>435.45944660380599</v>
+        <v>522.29908358888099</v>
       </c>
       <c r="C161">
-        <v>-7.7822656957147496</v>
+        <v>-4.9953102944524304</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A162">
-        <v>25.605275494795201</v>
+        <v>16.4354833490301</v>
       </c>
       <c r="B162">
-        <v>433.2483348335</v>
+        <v>521.19669049087099</v>
       </c>
       <c r="C162">
-        <v>-7.78058961736056</v>
+        <v>-4.9941909516214604</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A163">
-        <v>25.889382827477899</v>
+        <v>16.656089911052401</v>
       </c>
       <c r="B163">
-        <v>431.03812793289899</v>
+        <v>520.09515457639304</v>
       </c>
       <c r="C163">
-        <v>-7.7805974448525301</v>
+        <v>-4.9961976264764596</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A164">
-        <v>26.1734901601606</v>
+        <v>16.876696473074698</v>
       </c>
       <c r="B164">
-        <v>428.828077315077</v>
+        <v>518.99346656652403</v>
       </c>
       <c r="C164">
-        <v>-7.7804017985732896</v>
+        <v>-4.9973738849149001</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A165">
-        <v>26.522600294463398</v>
+        <v>17.0940995624027</v>
       </c>
       <c r="B165">
-        <v>426.11168827125402</v>
+        <v>517.906712668772</v>
       </c>
       <c r="C165">
-        <v>-7.7776155508477602</v>
+        <v>-4.9941425217920301</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A166">
-        <v>26.8717104287661</v>
+        <v>17.311502651730802</v>
       </c>
       <c r="B166">
-        <v>423.39611253967303</v>
+        <v>516.82049958506298</v>
       </c>
       <c r="C166">
-        <v>-7.7759794162939002</v>
+        <v>-4.9928100724828299</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A167">
-        <v>27.220820563068798</v>
+        <v>17.5289057410588</v>
       </c>
       <c r="B167">
-        <v>420.68183015070503</v>
+        <v>515.73530451706495</v>
       </c>
       <c r="C167">
-        <v>-7.7767017979207802</v>
+        <v>-4.9952399561857002</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A168">
-        <v>27.5699306973715</v>
+        <v>17.746308830386798</v>
       </c>
       <c r="B168">
-        <v>417.96764684275797</v>
+        <v>514.64992180067804</v>
       </c>
       <c r="C168">
-        <v>-7.7767734616097099</v>
+        <v>-4.9967051913384903</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A169">
-        <v>27.967662516997901</v>
+        <v>17.952755087736801</v>
       </c>
       <c r="B169">
-        <v>414.873480670238</v>
+        <v>513.61813263273598</v>
       </c>
       <c r="C169">
-        <v>-7.7708078380162897</v>
+        <v>-4.9935475575094896</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A170">
-        <v>28.365394336624298</v>
+        <v>18.1592013450867</v>
       </c>
       <c r="B170">
-        <v>411.78111343343801</v>
+        <v>512.58685221099097</v>
       </c>
       <c r="C170">
-        <v>-7.7682083115302998</v>
+        <v>-4.9921865725213497</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A171">
-        <v>28.763126156250699</v>
+        <v>18.365647602436599</v>
       </c>
       <c r="B171">
-        <v>408.69222304658501</v>
+        <v>511.55647795700401</v>
       </c>
       <c r="C171">
-        <v>-7.7731863346093801</v>
+        <v>-4.9941750817965396</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A172">
-        <v>29.1608579758771</v>
+        <v>18.572093859786499</v>
       </c>
       <c r="B172">
-        <v>405.60274312018299</v>
+        <v>510.52596736691697</v>
       </c>
       <c r="C172">
-        <v>-7.7755062146529603</v>
+        <v>-4.9954223148241903</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A173">
-        <v>29.520995499734401</v>
+        <v>18.772878773327299</v>
       </c>
       <c r="B173">
-        <v>402.80055986436003</v>
+        <v>509.52280479391999</v>
       </c>
       <c r="C173">
-        <v>-7.7647487471894596</v>
+        <v>-4.9928668492898298</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A174">
-        <v>29.881133023591602</v>
+        <v>18.9736636868681</v>
       </c>
       <c r="B174">
-        <v>400.00131459892901</v>
+        <v>508.520047302786</v>
       </c>
       <c r="C174">
-        <v>-7.7604478406812696</v>
+        <v>-4.9917119475385601</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A175">
-        <v>30.241270547448899</v>
+        <v>19.174448600408901</v>
       </c>
       <c r="B175">
-        <v>397.20784712892402</v>
+        <v>507.51798107450799</v>
       </c>
       <c r="C175">
-        <v>-7.7696928905298703</v>
+        <v>-4.9930773263714698</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A176">
-        <v>30.6014080713061</v>
+        <v>19.375233513949699</v>
       </c>
       <c r="B176">
-        <v>394.41318088154702</v>
+        <v>506.51583515934402</v>
       </c>
       <c r="C176">
-        <v>-7.7749333776692104</v>
+        <v>-4.9939360824284398</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A177">
-        <v>30.8907462085572</v>
+        <v>19.5821101187347</v>
       </c>
       <c r="B177">
-        <v>392.163191473278</v>
+        <v>505.48255491428199</v>
       </c>
       <c r="C177">
-        <v>-7.7665679055974604</v>
+        <v>-4.9917573275537102</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A178">
-        <v>31.1800843458083</v>
+        <v>19.788986723519599</v>
       </c>
       <c r="B178">
-        <v>389.91514329357898</v>
+        <v>504.44963009833702</v>
       </c>
       <c r="C178">
-        <v>-7.76250312349931</v>
+        <v>-4.99077197467851</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A179">
-        <v>31.4694224830594</v>
+        <v>19.995863328304601</v>
       </c>
       <c r="B179">
-        <v>387.67006500959502</v>
+        <v>503.41732694474399</v>
       </c>
       <c r="C179">
-        <v>-7.7653219921353802</v>
+        <v>-4.9920223539729696</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A180">
-        <v>31.7587606203105</v>
+        <v>20.2027399330895</v>
       </c>
       <c r="B180">
-        <v>385.424855717431</v>
+        <v>502.38494899088897</v>
       </c>
       <c r="C180">
-        <v>-7.7671780325824002</v>
+        <v>-4.9927742347928197</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A181">
-        <v>32.026610931363699</v>
+        <v>20.420832243246501</v>
       </c>
       <c r="B181">
-        <v>383.34444062489098</v>
+        <v>501.29584621240298</v>
       </c>
       <c r="C181">
-        <v>-7.7634176664508301</v>
+        <v>-4.99038601749315</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A182">
-        <v>32.294461242416801</v>
+        <v>20.638924553403399</v>
       </c>
       <c r="B182">
-        <v>381.264865619033</v>
+        <v>500.207147708653</v>
       </c>
       <c r="C182">
-        <v>-7.76125358239723</v>
+        <v>-4.9893603783837701</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A183">
-        <v>32.562311553469897</v>
+        <v>20.8570168635604</v>
       </c>
       <c r="B183">
-        <v>379.18639649876297</v>
+        <v>499.11919898704599</v>
       </c>
       <c r="C183">
-        <v>-7.7613566133118601</v>
+        <v>-4.99104954996033</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A184">
-        <v>32.830161864523099</v>
+        <v>21.075109173717301</v>
       </c>
       <c r="B184">
-        <v>377.10807712614502</v>
+        <v>498.03112923595398</v>
       </c>
       <c r="C184">
-        <v>-7.7613077523653597</v>
+        <v>-4.9920357822510297</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A185">
-        <v>33.142484998762903</v>
+        <v>21.2961301771448</v>
       </c>
       <c r="B185">
-        <v>374.68399056604198</v>
+        <v>496.92747773943302</v>
       </c>
       <c r="C185">
-        <v>-7.7588350889602502</v>
+        <v>-4.9890016753650803</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A186">
-        <v>33.4548081330027</v>
+        <v>21.517151180572199</v>
       </c>
       <c r="B186">
-        <v>372.26056267572898</v>
+        <v>495.82434079254102</v>
       </c>
       <c r="C186">
-        <v>-7.7573095140981803</v>
+        <v>-4.9877577651452301</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A187">
-        <v>33.767131267242398</v>
+        <v>21.738172183999701</v>
       </c>
       <c r="B187">
-        <v>369.838096069931</v>
+        <v>494.72218491279898</v>
       </c>
       <c r="C187">
-        <v>-7.7574950939451703</v>
+        <v>-4.9901281215317201</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A188">
-        <v>34.079454401482202</v>
+        <v>21.9591931874271</v>
       </c>
       <c r="B188">
-        <v>367.41577712175501</v>
+        <v>493.61984258669798</v>
       </c>
       <c r="C188">
-        <v>-7.75733566657554</v>
+        <v>-4.9915311716900703</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A189">
-        <v>34.459143464297597</v>
+        <v>22.170727601217202</v>
       </c>
       <c r="B189">
-        <v>364.46992659737202</v>
+        <v>492.56367357627403</v>
       </c>
       <c r="C189">
-        <v>-7.7535150562000696</v>
+        <v>-4.98818455564167</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A190">
-        <v>34.838832527112899</v>
+        <v>22.3822620150072</v>
       </c>
       <c r="B190">
-        <v>361.52523214015901</v>
+        <v>491.50805281344401</v>
       </c>
       <c r="C190">
-        <v>-7.7515565435172702</v>
+        <v>-4.9867817666945804</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A191">
-        <v>35.218521589928301</v>
+        <v>22.593796428797301</v>
       </c>
       <c r="B191">
-        <v>358.58257779223499</v>
+        <v>490.45343915177801</v>
       </c>
       <c r="C191">
-        <v>-7.7536895767806602</v>
+        <v>-4.9891166379521898</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A192">
-        <v>35.598210652743603</v>
+        <v>22.805330842587299</v>
       </c>
       <c r="B192">
-        <v>355.63981412341298</v>
+        <v>489.398653193987</v>
       </c>
       <c r="C192">
-        <v>-7.7544850837822104</v>
+        <v>-4.99055818900493</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A193">
-        <v>35.986249429679297</v>
+        <v>23.0064625344958</v>
       </c>
       <c r="B193">
-        <v>352.62899153251601</v>
+        <v>488.39470958160399</v>
       </c>
       <c r="C193">
-        <v>-7.7457871997379399</v>
+        <v>-4.9876933520705302</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A194">
-        <v>36.374288206614999</v>
+        <v>23.2075942264043</v>
       </c>
       <c r="B194">
-        <v>349.620684653377</v>
+        <v>487.39121917508299</v>
       </c>
       <c r="C194">
-        <v>-7.7423392429206999</v>
+        <v>-4.9864199249409404</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A195">
-        <v>36.762326983550601</v>
+        <v>23.4087259183128</v>
       </c>
       <c r="B195">
-        <v>346.61744972754298</v>
+        <v>486.38850930439799</v>
       </c>
       <c r="C195">
-        <v>-7.7505551507855603</v>
+        <v>-4.9880192803435097</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A196">
-        <v>37.150365760486302</v>
+        <v>23.609857610221301</v>
       </c>
       <c r="B196">
-        <v>343.613093162236</v>
+        <v>485.38570052671002</v>
       </c>
       <c r="C196">
-        <v>-7.7548161508842197</v>
+        <v>-4.9890351067117296</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A197">
-        <v>37.4721771887952</v>
+        <v>23.811681172124999</v>
       </c>
       <c r="B197">
-        <v>341.11630543300998</v>
+        <v>484.37865622872499</v>
       </c>
       <c r="C197">
-        <v>-7.7444465865309402</v>
+        <v>-4.98677471778183</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A198">
-        <v>37.793988617104098</v>
+        <v>24.0135047340288</v>
       </c>
       <c r="B198">
-        <v>338.62212598101502</v>
+        <v>483.37197293178298</v>
       </c>
       <c r="C198">
-        <v>-7.7399337926363403</v>
+        <v>-4.9857414585275199</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A199">
-        <v>38.115800045413003</v>
+        <v>24.215328295932501</v>
       </c>
       <c r="B199">
-        <v>336.13257765689298</v>
+        <v>482.36590616700101</v>
       </c>
       <c r="C199">
-        <v>-7.7463491577043504</v>
+        <v>-4.9869367653478296</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A200">
-        <v>38.437611473721901</v>
+        <v>24.417151857836199</v>
       </c>
       <c r="B200">
-        <v>333.642366821265</v>
+        <v>481.35977232242101</v>
       </c>
       <c r="C200">
-        <v>-7.7503020121236501</v>
+        <v>-4.9876735471684697</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A201">
-        <v>38.707417427322397</v>
+        <v>24.630164961510701</v>
       </c>
       <c r="B201">
-        <v>331.55124114393499</v>
+        <v>480.297156903987</v>
       </c>
       <c r="C201">
-        <v>-7.7445858146645401</v>
+        <v>-4.9854954390133397</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A202">
-        <v>38.977223380922801</v>
+        <v>24.8431780651851</v>
       </c>
       <c r="B202">
-        <v>329.461376891773</v>
+        <v>479.23490480417797</v>
       </c>
       <c r="C202">
-        <v>-7.7415372027232703</v>
+        <v>-4.9845313342596498</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A203">
-        <v>39.247029334523297</v>
+        <v>25.056191168859598</v>
       </c>
       <c r="B203">
-        <v>327.373238969819</v>
+        <v>478.17330832113203</v>
       </c>
       <c r="C203">
-        <v>-7.7423308244939104</v>
+        <v>-4.98592686954699</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A204">
-        <v>39.516835288123801</v>
+        <v>25.2692042725341</v>
       </c>
       <c r="B204">
-        <v>325.28519709712401</v>
+        <v>477.11162046245198</v>
       </c>
       <c r="C204">
-        <v>-7.7428279237928201</v>
+        <v>-4.9867465816684602</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A205">
-        <v>39.799481681289201</v>
+        <v>25.491191107789199</v>
       </c>
       <c r="B205">
-        <v>323.09671610013402</v>
+        <v>476.00435509804402</v>
       </c>
       <c r="C205">
-        <v>-7.7400676147587699</v>
+        <v>-4.9840316552947597</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A206">
-        <v>40.082128074454602</v>
+        <v>25.7131779430443</v>
       </c>
       <c r="B206">
-        <v>320.90889653242698</v>
+        <v>474.89755299411098</v>
       </c>
       <c r="C206">
-        <v>-7.7383981580042098</v>
+        <v>-4.9829053772692697</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A207">
-        <v>40.364774467620002</v>
+        <v>25.935164778299502</v>
       </c>
       <c r="B207">
-        <v>318.721980184095</v>
+        <v>473.79163234313899</v>
       </c>
       <c r="C207">
-        <v>-7.7384316672903903</v>
+        <v>-4.98500542741363</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A208">
-        <v>40.647420860785402</v>
+        <v>26.1571516135546</v>
       </c>
       <c r="B208">
-        <v>316.53521392774297</v>
+        <v>472.68554931655302</v>
       </c>
       <c r="C208">
-        <v>-7.7382589521337399</v>
+        <v>-4.9862311034894997</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A209">
-        <v>40.993569124739103</v>
+        <v>26.3744508131721</v>
       </c>
       <c r="B209">
-        <v>313.856458020589</v>
+        <v>471.60172007900002</v>
       </c>
       <c r="C209">
-        <v>-7.7354987893600597</v>
+        <v>-4.9828774817303803</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A210">
-        <v>41.339717388692797</v>
+        <v>26.5917500127895</v>
       </c>
       <c r="B210">
-        <v>311.17850037189402</v>
+        <v>470.51845091556697</v>
       </c>
       <c r="C210">
-        <v>-7.7338840058308396</v>
+        <v>-4.9815043153057497</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A211">
-        <v>41.685865652646399</v>
+        <v>26.809049212407</v>
       </c>
       <c r="B211">
-        <v>308.501813677391</v>
+        <v>469.43624024497001</v>
       </c>
       <c r="C211">
-        <v>-7.7346109960040996</v>
+        <v>-4.9840617836682002</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A212">
-        <v>42.0320139166001</v>
+        <v>27.026348412024401</v>
       </c>
       <c r="B212">
-        <v>305.82522035748002</v>
+        <v>468.35383005735298</v>
       </c>
       <c r="C212">
-        <v>-7.7346963910812798</v>
+        <v>-4.98560690420853</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A213">
-        <v>42.426491027028703</v>
+        <v>27.230806831088799</v>
       </c>
       <c r="B213">
-        <v>302.77299997448</v>
+        <v>467.33424811413403</v>
       </c>
       <c r="C213">
-        <v>-7.7288617121987597</v>
+        <v>-4.9824041046798202</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214">
-        <v>42.8209681374572</v>
+        <v>27.435265250153201</v>
       </c>
       <c r="B214">
-        <v>299.72252652615799</v>
+        <v>466.315177824241</v>
       </c>
       <c r="C214">
-        <v>-7.7263142739447304</v>
+        <v>-4.9810186431549903</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215">
-        <v>43.215445247885803</v>
+        <v>27.639723669217599</v>
       </c>
       <c r="B215">
-        <v>296.67542557942699</v>
+        <v>465.29701196838403</v>
       </c>
       <c r="C215">
-        <v>-7.7311566011489496</v>
+        <v>-4.98298862737294</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216">
-        <v>43.6099223583144</v>
+        <v>27.844182088282</v>
       </c>
       <c r="B216">
-        <v>293.62775745198701</v>
+        <v>464.27871317819199</v>
       </c>
       <c r="C216">
-        <v>-7.7334176733837099</v>
+        <v>-4.9842339031431599</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217">
-        <v>43.968477026544598</v>
+        <v>28.042916741713899</v>
       </c>
       <c r="B217">
-        <v>290.85301688900199</v>
+        <v>463.28802879863503</v>
       </c>
       <c r="C217">
-        <v>-7.7228775034227999</v>
+        <v>-4.9817460389108703</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218">
-        <v>44.327031694774803</v>
+        <v>28.241651395145801</v>
       </c>
       <c r="B218">
-        <v>288.081141552227</v>
+        <v>462.29773558344499</v>
       </c>
       <c r="C218">
-        <v>-7.7186652565636704</v>
+        <v>-4.9806120428400398</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219">
-        <v>44.685586363005001</v>
+        <v>28.4403860485777</v>
       </c>
       <c r="B219">
-        <v>285.31490444428903</v>
+        <v>461.30810274794698</v>
       </c>
       <c r="C219">
-        <v>-7.7277422523762</v>
+        <v>-4.9818877729449103</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220">
-        <v>45.044141031235199</v>
+        <v>28.639120702009599</v>
       </c>
       <c r="B220">
-        <v>282.54749523294703</v>
+        <v>460.318398603736</v>
       </c>
       <c r="C220">
-        <v>-7.7328827461434502</v>
+        <v>-4.9826937755212004</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221">
-        <v>45.333003881878497</v>
+        <v>28.8457070479325</v>
       </c>
       <c r="B221">
-        <v>280.313335159178</v>
+        <v>459.28889738610599</v>
       </c>
       <c r="C221">
-        <v>-7.7245886102524803</v>
+        <v>-4.9805987435802601</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222">
-        <v>45.621866732521802</v>
+        <v>29.0522933938554</v>
       </c>
       <c r="B222">
-        <v>278.08109506795699</v>
+        <v>458.259737781968</v>
       </c>
       <c r="C222">
-        <v>-7.7205743737555004</v>
+        <v>-4.9796470240439197</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223">
-        <v>45.9107295831652</v>
+        <v>29.258879739778202</v>
       </c>
       <c r="B223">
-        <v>275.85180928907602</v>
+        <v>457.231174898257</v>
       </c>
       <c r="C223">
-        <v>-7.7234510741981</v>
+        <v>-4.9808397498738204</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224">
-        <v>46.199592433808498</v>
+        <v>29.465466085701099</v>
       </c>
       <c r="B224">
-        <v>273.62238121351697</v>
+        <v>456.20254188674102</v>
       </c>
       <c r="C224">
-        <v>-7.7253414782728198</v>
+        <v>-4.9815530758281499</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225">
-        <v>46.466562785776802</v>
+        <v>29.684971288467001</v>
       </c>
       <c r="B225">
-        <v>271.55996459472601</v>
+        <v>455.10884189087699</v>
       </c>
       <c r="C225">
-        <v>-7.7215752048300903</v>
+        <v>-4.9791753373572103</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226">
-        <v>46.733533137745098</v>
+        <v>29.904476491232899</v>
       </c>
       <c r="B226">
-        <v>269.49838563138798</v>
+        <v>454.01554602280601</v>
       </c>
       <c r="C226">
-        <v>-7.7194181988975998</v>
+        <v>-4.9781608692881996</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227">
-        <v>47.000503489713402</v>
+        <v>30.1239816939988</v>
       </c>
       <c r="B227">
-        <v>267.43791400484503</v>
+        <v>452.92300558051602</v>
       </c>
       <c r="C227">
-        <v>-7.7195547305318897</v>
+        <v>-4.9798876284243399</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228">
-        <v>47.267473841681699</v>
+        <v>30.343486896764599</v>
       </c>
       <c r="B228">
-        <v>265.37758571961598</v>
+        <v>451.83033929226201</v>
       </c>
       <c r="C228">
-        <v>-7.7195327136938996</v>
+        <v>-4.9808892779812197</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229">
-        <v>47.577615014675899</v>
+        <v>30.565413757781901</v>
       </c>
       <c r="B229">
-        <v>262.983388172258</v>
+        <v>450.72461912340299</v>
       </c>
       <c r="C229">
-        <v>-7.7170704131421797</v>
+        <v>-4.9777459310620298</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230">
-        <v>47.887756187670099</v>
+        <v>30.787340618799298</v>
       </c>
       <c r="B230">
-        <v>260.58984106274102</v>
+        <v>449.61943255994498</v>
       </c>
       <c r="C230">
-        <v>-7.7155588929957402</v>
+        <v>-4.9764711198786502</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231">
-        <v>48.1978973606643</v>
+        <v>31.0092674798166</v>
       </c>
       <c r="B231">
-        <v>258.19724505982799</v>
+        <v>448.515271573451</v>
       </c>
       <c r="C231">
-        <v>-7.7157613913368097</v>
+        <v>-4.97899231374483</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232">
-        <v>48.5080385336585</v>
+        <v>31.231194340833898</v>
       </c>
       <c r="B232">
-        <v>255.80479038202799</v>
+        <v>447.41090870146797</v>
       </c>
       <c r="C232">
-        <v>-7.7156203798041298</v>
+        <v>-4.9804824090040603</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233">
-        <v>48.884565889820699</v>
+        <v>31.441436806652799</v>
       </c>
       <c r="B233">
-        <v>252.899184249944</v>
+        <v>446.36350599211602</v>
       </c>
       <c r="C233">
-        <v>-7.71185949841633</v>
+        <v>-4.9770275474913896</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234">
-        <v>49.261093245982799</v>
+        <v>31.651679272471799</v>
       </c>
       <c r="B234">
-        <v>249.99470694218999</v>
+        <v>445.31666583524498</v>
       </c>
       <c r="C234">
-        <v>-7.70993310533333</v>
+        <v>-4.9755811996652497</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235">
-        <v>49.637620602144899</v>
+        <v>31.8619217382907</v>
       </c>
       <c r="B235">
-        <v>247.092221651095</v>
+        <v>444.27085661645799</v>
       </c>
       <c r="C235">
-        <v>-7.7120298499777604</v>
+        <v>-4.9779782428561097</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236">
-        <v>50.014147958307099</v>
+        <v>32.072164204109598</v>
       </c>
       <c r="B236">
-        <v>244.18962888612799</v>
+        <v>443.22487090367599</v>
       </c>
       <c r="C236">
-        <v>-7.7128180868345</v>
+        <v>-4.9794668621311802</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237">
-        <v>50.399797935070097</v>
+        <v>32.270879758149803</v>
       </c>
       <c r="B237">
-        <v>241.213449368873</v>
+        <v>442.23520188083899</v>
       </c>
       <c r="C237">
-        <v>-7.7043014411422801</v>
+        <v>-4.97662594913439</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238">
-        <v>50.785447911833202</v>
+        <v>32.469595312190002</v>
       </c>
       <c r="B238">
-        <v>238.23971891182501</v>
+        <v>441.24597777710301</v>
       </c>
       <c r="C238">
-        <v>-7.7009220509455503</v>
+        <v>-4.9753530975765097</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A239">
-        <v>51.1710978885963</v>
+        <v>32.6683108662302</v>
       </c>
       <c r="B239">
-        <v>235.270923337037</v>
+        <v>440.25751069265999</v>
       </c>
       <c r="C239">
-        <v>-7.7089515938332802</v>
+        <v>-4.9768729228068702</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A240">
-        <v>51.556747865359299</v>
+        <v>32.867026420270399</v>
       </c>
       <c r="B240">
-        <v>232.301039170395</v>
+        <v>439.26895299707098</v>
       </c>
       <c r="C240">
-        <v>-7.7131175691534297</v>
+        <v>-4.9778462590623596</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A241">
-        <v>51.877639633176997</v>
+        <v>33.067550038312</v>
       </c>
       <c r="B241">
-        <v>229.824768838951</v>
+        <v>438.27064856527602</v>
       </c>
       <c r="C241">
-        <v>-7.70288228741419</v>
+        <v>-4.9756783432454101</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A242">
-        <v>52.198531400994597</v>
+        <v>33.2680736563537</v>
       </c>
       <c r="B242">
-        <v>227.35106383321099</v>
+        <v>437.27268880138701</v>
       </c>
       <c r="C242">
-        <v>-7.6984396621734899</v>
+        <v>-4.9746794170744897</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A243">
-        <v>52.519423168812303</v>
+        <v>33.4685972743953</v>
       </c>
       <c r="B243">
-        <v>224.88192806358401</v>
+        <v>436.27531355424998</v>
       </c>
       <c r="C243">
-        <v>-7.70484078208084</v>
+        <v>-4.9757917105044003</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A244">
-        <v>52.840314936629902</v>
+        <v>33.669120892437</v>
       </c>
       <c r="B244">
-        <v>222.41212907244801</v>
+        <v>435.277878375873</v>
       </c>
       <c r="C244">
-        <v>-7.7087793908323796</v>
+        <v>-4.9764763071303602</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A245">
-        <v>53.109458552097202</v>
+        <v>33.883000242134699</v>
       </c>
       <c r="B245">
-        <v>220.33730345637099</v>
+        <v>434.213338491809</v>
       </c>
       <c r="C245">
-        <v>-7.7030750885310102</v>
+        <v>-4.9743550143590198</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A246">
-        <v>53.378602167564402</v>
+        <v>34.096879591832398</v>
       </c>
       <c r="B246">
-        <v>218.26373248984601</v>
+        <v>433.14915360647399</v>
       </c>
       <c r="C246">
-        <v>-7.7000451443835702</v>
+        <v>-4.97341700161315</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A247">
-        <v>53.647745783031702</v>
+        <v>34.310758941530203</v>
       </c>
       <c r="B247">
-        <v>216.19188709965701</v>
+        <v>432.08561223664299</v>
       </c>
       <c r="C247">
-        <v>-7.7008857169924001</v>
+        <v>-4.9747956894582304</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A248">
-        <v>53.916889398499002</v>
+        <v>34.524638291227902</v>
       </c>
       <c r="B248">
-        <v>214.12012937590501</v>
+        <v>431.02198011983899</v>
       </c>
       <c r="C248">
-        <v>-7.7014164578001303</v>
+        <v>-4.9755992842181804</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A249">
-        <v>54.198007304832103</v>
+        <v>34.748236361435801</v>
       </c>
       <c r="B249">
-        <v>211.95512192060301</v>
+        <v>429.90915581358502</v>
       </c>
       <c r="C249">
-        <v>-7.6986591029088203</v>
+        <v>-4.9728240013235201</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A250">
-        <v>54.479125211165297</v>
+        <v>34.971834431643799</v>
       </c>
       <c r="B250">
-        <v>209.790770749187</v>
+        <v>428.79680672928998</v>
       </c>
       <c r="C250">
-        <v>-7.6969993949603897</v>
+        <v>-4.9716858207896397</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A251">
-        <v>54.760243117498497</v>
+        <v>35.195432501851798</v>
       </c>
       <c r="B251">
-        <v>207.62731777958399</v>
+        <v>427.68537075307597</v>
       </c>
       <c r="C251">
-        <v>-7.6970530420045202</v>
+        <v>-4.9739031375423899</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A252">
-        <v>55.041361023831698</v>
+        <v>35.419030572059697</v>
       </c>
       <c r="B252">
-        <v>205.46400937965299</v>
+        <v>426.57375954259601</v>
       </c>
       <c r="C252">
-        <v>-7.6968992888016503</v>
+        <v>-4.9751912638315003</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A253">
-        <v>55.3848531240425</v>
+        <v>35.636117426117302</v>
       </c>
       <c r="B253">
-        <v>202.82001533965101</v>
+        <v>425.493367758452</v>
       </c>
       <c r="C253">
-        <v>-7.6941670312062502</v>
+        <v>-4.9716917682776396</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A254">
-        <v>55.728345224253303</v>
+        <v>35.8532042801749</v>
       </c>
       <c r="B254">
-        <v>200.17680487570399</v>
+        <v>424.41355889810399</v>
       </c>
       <c r="C254">
-        <v>-7.6925738203712903</v>
+        <v>-4.9702689905435697</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A255">
-        <v>56.071837324464198</v>
+        <v>36.070291134232598</v>
       </c>
       <c r="B255">
-        <v>197.53484346327599</v>
+        <v>423.33485576191799</v>
       </c>
       <c r="C255">
-        <v>-7.6933040865532796</v>
+        <v>-4.97297251027131</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A256">
-        <v>56.415329424675001</v>
+        <v>36.287377988290103</v>
       </c>
       <c r="B256">
-        <v>194.89297030693999</v>
+        <v>422.25593971243597</v>
       </c>
       <c r="C256">
-        <v>-7.6934011763222898</v>
+        <v>-4.9746098910183401</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A257">
-        <v>56.806964476130403</v>
+        <v>36.489572674157102</v>
       </c>
       <c r="B257">
-        <v>191.878933125065</v>
+        <v>421.24987501630699</v>
       </c>
       <c r="C257">
-        <v>-7.6876739038634403</v>
+        <v>-4.9713619411882304</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A258">
-        <v>57.198599527585799</v>
+        <v>36.691767360024102</v>
       </c>
       <c r="B258">
-        <v>188.86659930165399</v>
+        <v>420.24432420129</v>
       </c>
       <c r="C258">
-        <v>-7.6851718318080096</v>
+        <v>-4.9699498729861</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A259">
-        <v>57.590234579041201</v>
+        <v>36.893962045891001</v>
       </c>
       <c r="B259">
-        <v>185.857552436726</v>
+        <v>419.239673030429</v>
       </c>
       <c r="C259">
-        <v>-7.6899132066314904</v>
+        <v>-4.9718876643768102</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A260">
-        <v>57.981869630496597</v>
+        <v>37.096156731758001</v>
       </c>
       <c r="B260">
-        <v>182.84795441479099</v>
+        <v>418.23489380765801</v>
       </c>
       <c r="C260">
-        <v>-7.6921317179108497</v>
+        <v>-4.9731236730860102</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A261">
-        <v>58.3388562791542</v>
+        <v>37.292727224623697</v>
       </c>
       <c r="B261">
-        <v>180.10011193407601</v>
+        <v>417.25719364219901</v>
       </c>
       <c r="C261">
-        <v>-7.6817581774275103</v>
+        <v>-4.9707139816253996</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A262">
-        <v>58.695842927811803</v>
+        <v>37.4892977174894</v>
       </c>
       <c r="B262">
-        <v>177.355075938726</v>
+        <v>416.27986909991802</v>
       </c>
       <c r="C262">
-        <v>-7.67761700812318</v>
+        <v>-4.9696049243205103</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A263">
-        <v>59.0528295764693</v>
+        <v>37.685868210355103</v>
       </c>
       <c r="B263">
-        <v>174.61556742146999</v>
+        <v>415.30317110013101</v>
       </c>
       <c r="C263">
-        <v>-7.6865762666654902</v>
+        <v>-4.9707829674573096</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A264">
-        <v>59.409816225126903</v>
+        <v>37.882438703220899</v>
       </c>
       <c r="B264">
-        <v>171.87490576380199</v>
+        <v>414.326410699044</v>
       </c>
       <c r="C264">
-        <v>-7.6916476116000796</v>
+        <v>-4.9715305751089502</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A265">
-        <v>59.697936927001798</v>
+        <v>38.088913070600299</v>
       </c>
       <c r="B265">
-        <v>169.65835620842</v>
+        <v>413.29977910803598</v>
       </c>
       <c r="C265">
-        <v>-7.6834104658743403</v>
+        <v>-4.9695229822156799</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A266">
-        <v>59.986057628876601</v>
+        <v>38.295387437979699</v>
       </c>
       <c r="B266">
-        <v>167.44370720136001</v>
+        <v>412.27347500055498</v>
       </c>
       <c r="C266">
-        <v>-7.6794373454842102</v>
+        <v>-4.9686067570590202</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A267">
-        <v>60.274178330751496</v>
+        <v>38.501861805359098</v>
       </c>
       <c r="B267">
-        <v>165.23199549504801</v>
+        <v>411.24774249858598</v>
       </c>
       <c r="C267">
-        <v>-7.6823592155801199</v>
+        <v>-4.96974218263159</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A268">
-        <v>60.562299032626299</v>
+        <v>38.708336172738498</v>
       </c>
       <c r="B268">
-        <v>163.02013249402501</v>
+        <v>410.22194441062101</v>
       </c>
       <c r="C268">
-        <v>-7.6842778139977099</v>
+        <v>-4.9704165196483503</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A269">
-        <v>60.828201251615901</v>
+        <v>38.929562946725298</v>
       </c>
       <c r="B269">
-        <v>160.976882376855</v>
+        <v>409.12212395007901</v>
       </c>
       <c r="C269">
-        <v>-7.6805128342028004</v>
+        <v>-4.96804045060225</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A270">
-        <v>61.094103470605397</v>
+        <v>39.150789720712197</v>
       </c>
       <c r="B270">
-        <v>158.934465437336</v>
+        <v>408.02270928434001</v>
       </c>
       <c r="C270">
-        <v>-7.6783652852732098</v>
+        <v>-4.9670348248079303</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A271">
-        <v>61.360005689594999</v>
+        <v>39.372016494698997</v>
       </c>
       <c r="B271">
-        <v>156.89315326262101</v>
+        <v>406.924059987345</v>
       </c>
       <c r="C271">
-        <v>-7.6785279185675499</v>
+        <v>-4.9688131642891697</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A272">
-        <v>61.625907908584502</v>
+        <v>39.593243268685796</v>
       </c>
       <c r="B272">
-        <v>154.85197882038099</v>
+        <v>405.82527848122498</v>
       </c>
       <c r="C272">
-        <v>-7.6785277788932396</v>
+        <v>-4.9698373819846697</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A273">
-        <v>61.933971932267902</v>
+        <v>39.816133128770097</v>
       </c>
       <c r="B273">
-        <v>152.48644658498799</v>
+        <v>404.71720071214799</v>
       </c>
       <c r="C273">
-        <v>-7.6760801411752499</v>
+        <v>-4.9665583484235398</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A274">
-        <v>62.242035955951401</v>
+        <v>40.039022988854299</v>
       </c>
       <c r="B274">
-        <v>150.12155584316201</v>
+        <v>403.609680116736</v>
       </c>
       <c r="C274">
-        <v>-7.6745840470800504</v>
+        <v>-4.9652441775265803</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A275">
-        <v>62.550099979634801</v>
+        <v>40.2619128489386</v>
       </c>
       <c r="B275">
-        <v>147.75760462393399</v>
+        <v>402.50323941663402</v>
       </c>
       <c r="C275">
-        <v>-7.6748000550234803</v>
+        <v>-4.9679468149775303</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A276">
-        <v>62.858164003318201</v>
+        <v>40.484802709022802</v>
       </c>
       <c r="B276">
-        <v>145.39378905379499</v>
+        <v>401.396578306886</v>
       </c>
       <c r="C276">
-        <v>-7.6746747341565298</v>
+        <v>-4.9695419333399196</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A277">
-        <v>63.231875626124904</v>
+        <v>40.693502847805</v>
       </c>
       <c r="B277">
-        <v>142.52521913844001</v>
+        <v>400.35913592706601</v>
       </c>
       <c r="C277">
-        <v>-7.6709684268023599</v>
+        <v>-4.9659657809341198</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A278">
-        <v>63.605587248931599</v>
+        <v>40.902202986587099</v>
       </c>
       <c r="B278">
-        <v>139.65775338387101</v>
+        <v>399.32227177559798</v>
       </c>
       <c r="C278">
-        <v>-7.6690722539362897</v>
+        <v>-4.9644690054952001</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A279">
-        <v>63.979298871738301</v>
+        <v>41.110903125369198</v>
       </c>
       <c r="B279">
-        <v>136.79223676921799</v>
+        <v>398.28646326485699</v>
       </c>
       <c r="C279">
-        <v>-7.6711401228147702</v>
+        <v>-4.9669256643399704</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A280">
-        <v>64.353010494544904</v>
+        <v>41.319603264151297</v>
       </c>
       <c r="B280">
-        <v>133.92661352712699</v>
+        <v>397.25047474575598</v>
       </c>
       <c r="C280">
-        <v>-7.6719235454444501</v>
+        <v>-4.9684618214838396</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A281">
-        <v>64.736472965013803</v>
+        <v>41.515682706666801</v>
       </c>
       <c r="B281">
-        <v>130.983026631087</v>
+        <v>396.27610443973998</v>
       </c>
       <c r="C281">
-        <v>-7.6635526055480403</v>
+        <v>-4.9656540614195004</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A282">
-        <v>65.119935435482702</v>
+        <v>41.711762149182299</v>
       </c>
       <c r="B282">
-        <v>128.041833387547</v>
+        <v>395.30216901346301</v>
       </c>
       <c r="C282">
-        <v>-7.6602312290458103</v>
+        <v>-4.9643842423950204</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A283">
-        <v>65.503397905951601</v>
+        <v>41.907841591697803</v>
       </c>
       <c r="B283">
-        <v>125.105463245262</v>
+        <v>394.32896306877802</v>
       </c>
       <c r="C283">
-        <v>-7.6681220458033996</v>
+        <v>-4.9658110476583301</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A284">
-        <v>65.886860376420501</v>
+        <v>42.1039210342133</v>
       </c>
       <c r="B284">
-        <v>122.16802905277</v>
+        <v>393.35567592293199</v>
       </c>
       <c r="C284">
-        <v>-7.6722182170054696</v>
+        <v>-4.9667332927431902</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A285">
-        <v>66.206699581317196</v>
+        <v>42.303192805821098</v>
       </c>
       <c r="B285">
-        <v>119.71296269374299</v>
+        <v>392.365828284266</v>
       </c>
       <c r="C285">
-        <v>-7.6620887646785896</v>
+        <v>-4.9646648777340801</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A286">
-        <v>66.526538786213905</v>
+        <v>42.502464577428903</v>
       </c>
       <c r="B286">
-        <v>117.260425110198</v>
+        <v>391.37630812193697</v>
       </c>
       <c r="C286">
-        <v>-7.6577033723502801</v>
+        <v>-4.9637034871272201</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A287">
-        <v>66.8463779911106</v>
+        <v>42.7017363490367</v>
       </c>
       <c r="B287">
-        <v>114.81240384922</v>
+        <v>390.387339324538</v>
       </c>
       <c r="C287">
-        <v>-7.6640985375694601</v>
+        <v>-4.9647307577801199</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A288">
-        <v>67.166217196007295</v>
+        <v>42.901008120644498</v>
       </c>
       <c r="B288">
-        <v>112.363718230896</v>
+        <v>389.398317760841</v>
       </c>
       <c r="C288">
-        <v>-7.6680304024844999</v>
+        <v>-4.9653612295015304</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A289">
-        <v>67.434492341671699</v>
+        <v>43.116046226126301</v>
       </c>
       <c r="B289">
-        <v>110.30651279247201</v>
+        <v>388.33040188584101</v>
       </c>
       <c r="C289">
-        <v>-7.6623395707418798</v>
+        <v>-4.9632945673300402</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A290">
-        <v>67.702767487336104</v>
+        <v>43.331084331608203</v>
       </c>
       <c r="B290">
-        <v>108.25055406882601</v>
+        <v>387.26283334848802</v>
       </c>
       <c r="C290">
-        <v>-7.6593272471057103</v>
+        <v>-4.9623823106760501</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A291">
-        <v>67.971042633000593</v>
+        <v>43.546122437089998</v>
       </c>
       <c r="B291">
-        <v>106.19631641943</v>
+        <v>386.19589793287901</v>
       </c>
       <c r="C291">
-        <v>-7.6602046217352804</v>
+        <v>-4.9637497129444297</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A292">
-        <v>68.239317778664997</v>
+        <v>43.761160542571901</v>
       </c>
       <c r="B292">
-        <v>104.14215939253999</v>
+        <v>385.12887178057099</v>
       </c>
       <c r="C292">
-        <v>-7.6607627240223497</v>
+        <v>-4.9645397267915401</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A293">
-        <v>68.518872625574105</v>
+        <v>43.9865869287622</v>
       </c>
       <c r="B293">
-        <v>102.000552498424</v>
+        <v>384.009423145374</v>
       </c>
       <c r="C293">
-        <v>-7.6580132826987599</v>
+        <v>-4.9616838010816204</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A294">
-        <v>68.798427472483098</v>
+        <v>44.2120133149526</v>
       </c>
       <c r="B294">
-        <v>99.8595956283486</v>
+        <v>382.89046542347103</v>
       </c>
       <c r="C294">
-        <v>-7.6563651266314201</v>
+        <v>-4.9605278626422802</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A295">
-        <v>69.077982319392206</v>
+        <v>44.437439701142999</v>
       </c>
       <c r="B295">
-        <v>97.719529904814493</v>
+        <v>381.77246101598001</v>
       </c>
       <c r="C295">
-        <v>-7.6564351776554904</v>
+        <v>-4.9628902280770104</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A296">
-        <v>69.357537166301299</v>
+        <v>44.662866087333398</v>
       </c>
       <c r="B296">
-        <v>95.579603724525299</v>
+        <v>380.65426549030002</v>
       </c>
       <c r="C296">
-        <v>-7.6562976754411496</v>
+        <v>-4.9642559136373503</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A297">
-        <v>69.698575808608993</v>
+        <v>44.879596282527999</v>
       </c>
       <c r="B297">
-        <v>92.968341596519394</v>
+        <v>379.57799820431399</v>
       </c>
       <c r="C297">
-        <v>-7.6535942844287996</v>
+        <v>-4.9605851163003498</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A298">
-        <v>70.039614450916801</v>
+        <v>45.096326477722599</v>
       </c>
       <c r="B298">
-        <v>90.357848723887599</v>
+        <v>378.50234046566499</v>
       </c>
       <c r="C298">
-        <v>-7.6520226011807599</v>
+        <v>-4.9591029244233598</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A299">
-        <v>70.380653093224495</v>
+        <v>45.313056672917199</v>
       </c>
       <c r="B299">
-        <v>87.748583474414104</v>
+        <v>377.42784257497902</v>
       </c>
       <c r="C299">
-        <v>-7.6527551381766603</v>
+        <v>-4.9619708299423104</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A300">
-        <v>70.721691735532303</v>
+        <v>45.529786868111898</v>
       </c>
       <c r="B300">
-        <v>85.1394018075015</v>
+        <v>376.35311694107003</v>
       </c>
       <c r="C300">
-        <v>-7.6528624643001999</v>
+        <v>-4.9637130991595999</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A301">
-        <v>71.110758275356503</v>
+        <v>45.729441289789698</v>
       </c>
       <c r="B301">
-        <v>82.160920515992601</v>
+        <v>375.361874709689</v>
       </c>
       <c r="C301">
-        <v>-7.6472277455448197</v>
+        <v>-4.9604215343679998</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A302">
-        <v>71.499824815180702</v>
+        <v>45.929095711467497</v>
       </c>
       <c r="B302">
-        <v>79.184104437870701</v>
+        <v>374.371147632727</v>
       </c>
       <c r="C302">
-        <v>-7.6447666219235897</v>
+        <v>-4.9589811202870999</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A303">
-        <v>71.888891355004901</v>
+        <v>46.128750133145402</v>
       </c>
       <c r="B303">
-        <v>76.210501734568695</v>
+        <v>373.38131174757098</v>
       </c>
       <c r="C303">
-        <v>-7.6494283613759304</v>
+        <v>-4.9608709571707497</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A304">
-        <v>72.2779578948291</v>
+        <v>46.328404554823202</v>
       </c>
       <c r="B304">
-        <v>73.236360064897696</v>
+        <v>372.39135431318499</v>
       </c>
       <c r="C304">
-        <v>-7.6516141949708603</v>
+        <v>-4.9620888714960403</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A305">
-        <v>72.633400377413693</v>
+        <v>46.522725757780997</v>
       </c>
       <c r="B305">
-        <v>70.514823746501506</v>
+        <v>371.426998491961</v>
       </c>
       <c r="C305">
-        <v>-7.64137528384446</v>
+        <v>-4.9597670721050102</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A306">
-        <v>72.988842859998201</v>
+        <v>46.717046960738699</v>
       </c>
       <c r="B306">
-        <v>67.796044185272194</v>
+        <v>370.46300135641502</v>
       </c>
       <c r="C306">
-        <v>-7.63729398639832</v>
+        <v>-4.95868692956609</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A307">
-        <v>73.344285342582694</v>
+        <v>46.911368163696402</v>
       </c>
       <c r="B307">
-        <v>65.082699793599602</v>
+        <v>369.49959463606001</v>
       </c>
       <c r="C307">
-        <v>-7.6461670912391497</v>
+        <v>-4.9597616625534604</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A308">
-        <v>73.699727825167201</v>
+        <v>47.105689366654097</v>
       </c>
       <c r="B308">
-        <v>62.368216393432</v>
+        <v>368.53613469161201</v>
       </c>
       <c r="C308">
-        <v>-7.6511885268588502</v>
+        <v>-4.96044657223129</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A309">
-        <v>73.986947883353096</v>
+        <v>47.312254956361102</v>
       </c>
       <c r="B309">
-        <v>60.170208110125799</v>
+        <v>367.51134553217702</v>
       </c>
       <c r="C309">
-        <v>-7.6429988571293297</v>
+        <v>-4.9585281917581998</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A310">
-        <v>74.274167941539005</v>
+        <v>47.518820546068198</v>
       </c>
       <c r="B310">
-        <v>57.974082298148602</v>
+        <v>366.48686972109198</v>
       </c>
       <c r="C310">
-        <v>-7.6390606597005197</v>
+        <v>-4.9576485531343799</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A311">
-        <v>74.5613879997249</v>
+        <v>47.725386135775203</v>
       </c>
       <c r="B311">
-        <v>55.7808762130894</v>
+        <v>365.46294078406601</v>
       </c>
       <c r="C311">
-        <v>-7.6420199051734601</v>
+        <v>-4.9587284135325103</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A312">
-        <v>74.848608057910795</v>
+        <v>47.9319517254822</v>
       </c>
       <c r="B312">
-        <v>53.5875112976087</v>
+        <v>364.43895056559302</v>
       </c>
       <c r="C312">
-        <v>-7.64396290276607</v>
+        <v>-4.9593642361045198</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A313">
-        <v>75.113331023365802</v>
+        <v>48.155206098111996</v>
       </c>
       <c r="B313">
-        <v>51.563991959099397</v>
+        <v>363.331509231685</v>
       </c>
       <c r="C313">
-        <v>-7.6402035617325801</v>
+        <v>-4.9569790327320096</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A314">
-        <v>75.378053988820696</v>
+        <v>48.3784604707418</v>
       </c>
       <c r="B314">
-        <v>49.541300120269597</v>
+        <v>362.22447749974799</v>
       </c>
       <c r="C314">
-        <v>-7.63806677637628</v>
+        <v>-4.9559792589056304</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A315">
-        <v>75.642776954275703</v>
+        <v>48.601714843371703</v>
       </c>
       <c r="B315">
-        <v>47.519708014832503</v>
+        <v>361.11822604244901</v>
       </c>
       <c r="C315">
-        <v>-7.6382505797881004</v>
+        <v>-4.9578252311483197</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A316">
-        <v>75.907499919730597</v>
+        <v>48.824969216001499</v>
       </c>
       <c r="B316">
-        <v>45.498248611181602</v>
+        <v>360.011834227809</v>
       </c>
       <c r="C316">
-        <v>-7.6382689710407403</v>
+        <v>-4.9588802394259801</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A317">
-        <v>76.213562858890199</v>
+        <v>49.048842067791703</v>
       </c>
       <c r="B317">
-        <v>43.160402416299398</v>
+        <v>358.90129534217999</v>
       </c>
       <c r="C317">
-        <v>-7.6358385684743402</v>
+        <v>-4.9554360355829203</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A318">
-        <v>76.519625798049702</v>
+        <v>49.272714919582</v>
       </c>
       <c r="B318">
-        <v>40.823188419523497</v>
+        <v>357.79134217798003</v>
       </c>
       <c r="C318">
-        <v>-7.6343586056378996</v>
+        <v>-4.9540730464509801</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A319">
-        <v>76.825688737209205</v>
+        <v>49.496587771372297</v>
       </c>
       <c r="B319">
-        <v>38.486901590492003</v>
+        <v>356.68253402175299</v>
       </c>
       <c r="C319">
-        <v>-7.63458578499925</v>
+        <v>-4.9569909002681101</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A320">
-        <v>77.131751676368694</v>
+        <v>49.720460623162502</v>
       </c>
       <c r="B320">
-        <v>36.150745221423399</v>
+        <v>355.57348353360197</v>
       </c>
       <c r="C320">
-        <v>-7.6344742493795099</v>
+        <v>-4.9587109311245801</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A321">
-        <v>77.502879720719207</v>
+        <v>49.927353105114797</v>
       </c>
       <c r="B321">
-        <v>33.316931040042</v>
+        <v>354.54726222697201</v>
       </c>
       <c r="C321">
-        <v>-7.6308190047353399</v>
+        <v>-4.9550013923578096</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A322">
-        <v>77.874007765069607</v>
+        <v>50.134245587066999</v>
       </c>
       <c r="B322">
-        <v>30.484198158768901</v>
+        <v>353.521635916278</v>
       </c>
       <c r="C322">
-        <v>-7.6289516309480403</v>
+        <v>-4.95344722957448</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A323">
-        <v>78.245135809420105</v>
+        <v>50.341138069019202</v>
       </c>
       <c r="B323">
-        <v>27.653375085788898</v>
+        <v>352.497089914637</v>
       </c>
       <c r="C323">
-        <v>-7.6309951752856398</v>
+        <v>-4.9559573705800704</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A324">
-        <v>78.616263853770505</v>
+        <v>50.548030550971497</v>
       </c>
       <c r="B324">
-        <v>24.822445672388401</v>
+        <v>351.472361448225</v>
       </c>
       <c r="C324">
-        <v>-7.6317751798139701</v>
+        <v>-4.9575394691051997</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A325">
-        <v>78.997680866150603</v>
+        <v>50.741281661702303</v>
       </c>
       <c r="B325">
-        <v>21.909896919533601</v>
+        <v>350.51417019578298</v>
       </c>
       <c r="C325">
-        <v>-7.6235272322276302</v>
+        <v>-4.9547744838604801</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A326">
-        <v>79.3790978785307</v>
+        <v>50.9345327724333</v>
       </c>
       <c r="B326">
-        <v>18.999693736108402</v>
+        <v>349.55640206735598</v>
       </c>
       <c r="C326">
-        <v>-7.6202569662457504</v>
+        <v>-4.9535105673074602</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A327">
-        <v>79.760514890910798</v>
+        <v>51.127783883164199</v>
       </c>
       <c r="B327">
-        <v>16.0942181836527</v>
+        <v>348.59933221885098</v>
       </c>
       <c r="C327">
-        <v>-7.6280389640914699</v>
+        <v>-4.9548324942312902</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A328">
-        <v>80.141931903290896</v>
+        <v>51.321034993895097</v>
       </c>
       <c r="B328">
-        <v>13.187697808445</v>
+        <v>347.642191458507</v>
       </c>
       <c r="C328">
-        <v>-7.6320810875073999</v>
+        <v>-4.9556957101721499</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A329">
-        <v>80.460645076580406</v>
+        <v>51.519134532818498</v>
       </c>
       <c r="B329">
-        <v>10.7540665300198</v>
+        <v>346.66036304308898</v>
       </c>
       <c r="C329">
-        <v>-7.6220389372640698</v>
+        <v>-4.9537315297895397</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A330">
-        <v>80.779358249869802</v>
+        <v>51.717234071741899</v>
       </c>
       <c r="B330">
-        <v>8.3229317912405705</v>
+        <v>345.67884445315701</v>
       </c>
       <c r="C330">
-        <v>-7.6177023277965397</v>
+        <v>-4.9528100897526901</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A331">
-        <v>81.098071423159297</v>
+        <v>51.9153336106654</v>
       </c>
       <c r="B331">
-        <v>5.8962666123751104</v>
+        <v>344.697843756439</v>
       </c>
       <c r="C331">
-        <v>-7.6240971369088602</v>
+        <v>-4.9537526825946996</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A332">
-        <v>81.416784596448807</v>
+        <v>52.113433149588801</v>
       </c>
       <c r="B332">
-        <v>3.4689356431979101</v>
+        <v>343.71679727256901</v>
       </c>
       <c r="C332">
-        <v>-7.6280271545500797</v>
+        <v>-4.95432858277813</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A333">
-        <v>81.684067890833703</v>
+        <v>52.329926334325698</v>
       </c>
       <c r="B333">
-        <v>1.4300227855637</v>
+        <v>342.64404430056999</v>
       </c>
       <c r="C333">
-        <v>-7.6223504498625596</v>
+        <v>-4.9523125997311297</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A334">
+        <v>52.546419519062702</v>
+      </c>
+      <c r="B334">
+        <v>341.571631923876</v>
+      </c>
+      <c r="C334">
+        <v>-4.9514250338623498</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A335">
+        <v>52.7629127037996</v>
+      </c>
+      <c r="B335">
+        <v>340.49984441074702</v>
+      </c>
+      <c r="C335">
+        <v>-4.9527877106400497</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A336">
+        <v>52.979405888536498</v>
+      </c>
+      <c r="B336">
+        <v>339.427965467668</v>
+      </c>
+      <c r="C336">
+        <v>-4.95356731117836</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A337">
+        <v>53.206844479609103</v>
+      </c>
+      <c r="B337">
+        <v>338.30099795625301</v>
+      </c>
+      <c r="C337">
+        <v>-4.9506078924291899</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A338">
+        <v>53.434283070681602</v>
+      </c>
+      <c r="B338">
+        <v>337.17454120419501</v>
+      </c>
+      <c r="C338">
+        <v>-4.9494276115265503</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A339">
+        <v>53.6617216617542</v>
+      </c>
+      <c r="B339">
+        <v>336.04908748206702</v>
+      </c>
+      <c r="C339">
+        <v>-4.9519661108006501</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A340">
+        <v>53.889160252826699</v>
+      </c>
+      <c r="B340">
+        <v>334.92342333697798</v>
+      </c>
+      <c r="C340">
+        <v>-4.9534261816261296</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A341">
+        <v>54.105358409481298</v>
+      </c>
+      <c r="B341">
+        <v>333.85211693245998</v>
+      </c>
+      <c r="C341">
+        <v>-4.9495581625469898</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A342">
+        <v>54.321556566135797</v>
+      </c>
+      <c r="B342">
+        <v>332.78145042884802</v>
+      </c>
+      <c r="C342">
+        <v>-4.9480062603960597</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A343">
+        <v>54.537754722790297</v>
+      </c>
+      <c r="B343">
+        <v>331.71200442401198</v>
+      </c>
+      <c r="C343">
+        <v>-4.9510551785168202</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A344">
+        <v>54.753952879444903</v>
+      </c>
+      <c r="B344">
+        <v>330.64231466479299</v>
+      </c>
+      <c r="C344">
+        <v>-4.95291426219499</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A345">
+        <v>54.950812812452497</v>
+      </c>
+      <c r="B345">
+        <v>329.66708185425898</v>
+      </c>
+      <c r="C345">
+        <v>-4.9495821921193901</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A346">
+        <v>55.147672745460099</v>
+      </c>
+      <c r="B346">
+        <v>328.69236428767402</v>
+      </c>
+      <c r="C346">
+        <v>-4.9481122609095696</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A347">
+        <v>55.344532678467701</v>
+      </c>
+      <c r="B347">
+        <v>327.71852544026899</v>
+      </c>
+      <c r="C347">
+        <v>-4.9499373721256799</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A348">
+        <v>55.541392611475302</v>
+      </c>
+      <c r="B348">
+        <v>326.74457317026798</v>
+      </c>
+      <c r="C348">
+        <v>-4.9511273552961299</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A349">
+        <v>55.733420205248102</v>
+      </c>
+      <c r="B349">
+        <v>325.79371739859198</v>
+      </c>
+      <c r="C349">
+        <v>-4.9489012198903097</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A350">
+        <v>55.925447799020802</v>
+      </c>
+      <c r="B350">
+        <v>324.84320238214298</v>
+      </c>
+      <c r="C350">
+        <v>-4.9478535049782897</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A351">
+        <v>56.117475392793501</v>
+      </c>
+      <c r="B351">
+        <v>323.89324035698598</v>
+      </c>
+      <c r="C351">
+        <v>-4.9488226245742197</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A352">
+        <v>56.309502986566301</v>
+      </c>
+      <c r="B352">
+        <v>322.943234233449</v>
+      </c>
+      <c r="C352">
+        <v>-4.9494425013569101</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A353">
+        <v>56.516375597566103</v>
+      </c>
+      <c r="B353">
+        <v>321.91920440064001</v>
+      </c>
+      <c r="C353">
+        <v>-4.9476127229944202</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A354">
+        <v>56.723248208565899</v>
+      </c>
+      <c r="B354">
+        <v>320.89547413253098</v>
+      </c>
+      <c r="C354">
+        <v>-4.9467697764319203</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A355">
+        <v>56.930120819565701</v>
+      </c>
+      <c r="B355">
+        <v>319.872266992341</v>
+      </c>
+      <c r="C355">
+        <v>-4.9477971945201196</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A356">
+        <v>57.136993430565497</v>
+      </c>
+      <c r="B356">
+        <v>318.84900253993197</v>
+      </c>
+      <c r="C356">
+        <v>-4.9483959449917601</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A357">
+        <v>57.362553207695299</v>
+      </c>
+      <c r="B357">
+        <v>317.73258910406298</v>
+      </c>
+      <c r="C357">
+        <v>-4.9459891724818297</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A358">
+        <v>57.588112984825003</v>
+      </c>
+      <c r="B358">
+        <v>316.61659146252299</v>
+      </c>
+      <c r="C358">
+        <v>-4.9449917030672097</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A359">
+        <v>57.813672761954798</v>
+      </c>
+      <c r="B359">
+        <v>315.50139443110498</v>
+      </c>
+      <c r="C359">
+        <v>-4.9469228191039898</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A360">
+        <v>58.039232539084601</v>
+      </c>
+      <c r="B360">
+        <v>314.38604692719503</v>
+      </c>
+      <c r="C360">
+        <v>-4.9480175787405596</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A361">
+        <v>58.264062728143401</v>
+      </c>
+      <c r="B361">
+        <v>313.27316955352097</v>
+      </c>
+      <c r="C361">
+        <v>-4.9443770899894801</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A362">
+        <v>58.4888929172022</v>
+      </c>
+      <c r="B362">
+        <v>312.160911642999</v>
+      </c>
+      <c r="C362">
+        <v>-4.9429552630976703</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A363">
+        <v>58.7137231062609</v>
+      </c>
+      <c r="B363">
+        <v>311.04987507477</v>
+      </c>
+      <c r="C363">
+        <v>-4.9461235488066899</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A364">
+        <v>58.9385532953197</v>
+      </c>
+      <c r="B364">
+        <v>309.93857072327199</v>
+      </c>
+      <c r="C364">
+        <v>-4.9479892987320202</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A365">
+        <v>59.143379678177801</v>
+      </c>
+      <c r="B365">
+        <v>308.92478968377497</v>
+      </c>
+      <c r="C365">
+        <v>-4.9441363173076001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A366">
+        <v>59.348206061035903</v>
+      </c>
+      <c r="B366">
+        <v>307.91162108224802</v>
+      </c>
+      <c r="C366">
+        <v>-4.9425182002525103</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A367">
+        <v>59.553032443894097</v>
+      </c>
+      <c r="B367">
+        <v>306.89955634602802</v>
+      </c>
+      <c r="C367">
+        <v>-4.9450718200811199</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A368">
+        <v>59.757858826752198</v>
+      </c>
+      <c r="B368">
+        <v>305.88730810689401</v>
+      </c>
+      <c r="C368">
+        <v>-4.9466958215157604</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A369">
+        <v>59.948139174537999</v>
+      </c>
+      <c r="B369">
+        <v>304.94592458504798</v>
+      </c>
+      <c r="C369">
+        <v>-4.9439826847959498</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A370">
+        <v>60.138419522323801</v>
+      </c>
+      <c r="B370">
+        <v>304.00495094003401</v>
+      </c>
+      <c r="C370">
+        <v>-4.94272772671279</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A371">
+        <v>60.328699870109602</v>
+      </c>
+      <c r="B371">
+        <v>303.06464152565098</v>
+      </c>
+      <c r="C371">
+        <v>-4.9439361121135397</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A372">
+        <v>60.518980217895503</v>
+      </c>
+      <c r="B372">
+        <v>302.12427199829</v>
+      </c>
+      <c r="C372">
+        <v>-4.9447340044336601</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A373">
+        <v>60.716016639652103</v>
+      </c>
+      <c r="B373">
+        <v>301.149881858931</v>
+      </c>
+      <c r="C373">
+        <v>-4.9428756834054299</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A374">
+        <v>60.913053061408696</v>
+      </c>
+      <c r="B374">
+        <v>300.17578393964698</v>
+      </c>
+      <c r="C374">
+        <v>-4.9419954458696402</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A375">
+        <v>61.110089483165197</v>
+      </c>
+      <c r="B375">
+        <v>299.20217108043801</v>
+      </c>
+      <c r="C375">
+        <v>-4.9428562841935904</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A376">
+        <v>61.307125904921797</v>
+      </c>
+      <c r="B376">
+        <v>298.22851902281599</v>
+      </c>
+      <c r="C376">
+        <v>-4.9433788717735396</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A377">
+        <v>61.525347728068603</v>
+      </c>
+      <c r="B377">
+        <v>297.14958968354398</v>
+      </c>
+      <c r="C377">
+        <v>-4.9414079267181901</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A378">
+        <v>61.743569551215302</v>
+      </c>
+      <c r="B378">
+        <v>296.070995339153</v>
+      </c>
+      <c r="C378">
+        <v>-4.9405432491091599</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A379">
+        <v>61.9617913743621</v>
+      </c>
+      <c r="B379">
+        <v>294.99302005376001</v>
+      </c>
+      <c r="C379">
+        <v>-4.9419083820055301</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A380">
+        <v>62.180013197508899</v>
+      </c>
+      <c r="B380">
+        <v>293.91495189641</v>
+      </c>
+      <c r="C380">
+        <v>-4.9426811987130099</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A381">
+        <v>62.409591497877898</v>
+      </c>
+      <c r="B381">
+        <v>292.77985516452799</v>
+      </c>
+      <c r="C381">
+        <v>-4.9395941179440301</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A382">
+        <v>62.639169798247003</v>
+      </c>
+      <c r="B382">
+        <v>291.64529338393402</v>
+      </c>
+      <c r="C382">
+        <v>-4.9383825625656996</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A383">
+        <v>62.868748098616003</v>
+      </c>
+      <c r="B383">
+        <v>290.511794286802</v>
+      </c>
+      <c r="C383">
+        <v>-4.9411299501199402</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A384">
+        <v>63.098326398985101</v>
+      </c>
+      <c r="B384">
+        <v>289.37806181358297</v>
+      </c>
+      <c r="C384">
+        <v>-4.9427020202798699</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A385">
+        <v>63.313798846081099</v>
+      </c>
+      <c r="B385">
+        <v>288.31263814355498</v>
+      </c>
+      <c r="C385">
+        <v>-4.9386125252054898</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A386">
+        <v>63.529271293177203</v>
+      </c>
+      <c r="B386">
+        <v>287.24788806743499</v>
+      </c>
+      <c r="C386">
+        <v>-4.9369808769518198</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A387">
+        <v>63.744743740273201</v>
+      </c>
+      <c r="B387">
+        <v>286.18442459633599</v>
+      </c>
+      <c r="C387">
+        <v>-4.9402236566975901</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A388">
+        <v>63.960216187369198</v>
+      </c>
+      <c r="B388">
+        <v>285.12070061990602</v>
+      </c>
+      <c r="C388">
+        <v>-4.9422094437919002</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A389">
+        <v>64.154079214485705</v>
+      </c>
+      <c r="B389">
+        <v>284.162401257346</v>
+      </c>
+      <c r="C389">
+        <v>-4.9388413735481</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A390">
+        <v>64.347942241602198</v>
+      </c>
+      <c r="B390">
+        <v>283.20461591961998</v>
+      </c>
+      <c r="C390">
+        <v>-4.9373414919291401</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A391">
+        <v>64.541805268718605</v>
+      </c>
+      <c r="B391">
+        <v>282.24769287086099</v>
+      </c>
+      <c r="C391">
+        <v>-4.9390858548271597</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A392">
+        <v>64.735668295835097</v>
+      </c>
+      <c r="B392">
+        <v>281.29066596113302</v>
+      </c>
+      <c r="C392">
+        <v>-4.9402380018204797</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A393">
+        <v>64.925409532592298</v>
+      </c>
+      <c r="B393">
+        <v>280.35320990570699</v>
+      </c>
+      <c r="C393">
+        <v>-4.9381121883863104</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A394">
+        <v>65.115150769349498</v>
+      </c>
+      <c r="B394">
+        <v>279.41607625708002</v>
+      </c>
+      <c r="C394">
+        <v>-4.9370994681094604</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A395">
+        <v>65.304892006106797</v>
+      </c>
+      <c r="B395">
+        <v>278.47945814970302</v>
+      </c>
+      <c r="C395">
+        <v>-4.9379646314490699</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A396">
+        <v>65.494633242863998</v>
+      </c>
+      <c r="B396">
+        <v>277.54280466870301</v>
+      </c>
+      <c r="C396">
+        <v>-4.9385196093914301</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A397">
+        <v>65.702020782215499</v>
+      </c>
+      <c r="B397">
+        <v>276.51849671764199</v>
+      </c>
+      <c r="C397">
+        <v>-4.9367751931102202</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A398">
+        <v>65.9094083215669</v>
+      </c>
+      <c r="B398">
+        <v>275.49447526980998</v>
+      </c>
+      <c r="C398">
+        <v>-4.9359679176763001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A399">
+        <v>66.116795860918401</v>
+      </c>
+      <c r="B399">
+        <v>274.47095477465598</v>
+      </c>
+      <c r="C399">
+        <v>-4.9369472602740698</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A400">
+        <v>66.324183400269902</v>
+      </c>
+      <c r="B400">
+        <v>273.44738052285498</v>
+      </c>
+      <c r="C400">
+        <v>-4.9375113188153499</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A401">
+        <v>66.552264972978605</v>
+      </c>
+      <c r="B401">
+        <v>272.32095564056903</v>
+      </c>
+      <c r="C401">
+        <v>-4.9350697734487197</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A402">
+        <v>66.780346545687394</v>
+      </c>
+      <c r="B402">
+        <v>271.19495520168698</v>
+      </c>
+      <c r="C402">
+        <v>-4.9340707555891701</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A403">
+        <v>67.008428118396097</v>
+      </c>
+      <c r="B403">
+        <v>270.06978120042402</v>
+      </c>
+      <c r="C403">
+        <v>-4.9361047217649903</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A404">
+        <v>67.2365096911048</v>
+      </c>
+      <c r="B404">
+        <v>268.94444459478598</v>
+      </c>
+      <c r="C404">
+        <v>-4.9372482580171502</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A405">
+        <v>67.462221978550204</v>
+      </c>
+      <c r="B405">
+        <v>267.829595583615</v>
+      </c>
+      <c r="C405">
+        <v>-4.9333813386639997</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A406">
+        <v>67.687934265995594</v>
+      </c>
+      <c r="B406">
+        <v>266.71540473337501</v>
+      </c>
+      <c r="C406">
+        <v>-4.9318909129925004</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A407">
+        <v>67.913646553440998</v>
+      </c>
+      <c r="B407">
+        <v>265.602522216343</v>
+      </c>
+      <c r="C407">
+        <v>-4.9353432030242796</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A408">
+        <v>68.139358840886402</v>
+      </c>
+      <c r="B408">
+        <v>264.48934312662499</v>
+      </c>
+      <c r="C408">
+        <v>-4.93737459687644</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A409">
+        <v>68.341898963195007</v>
+      </c>
+      <c r="B409">
+        <v>263.489025789903</v>
+      </c>
+      <c r="C409">
+        <v>-4.9333713305251701</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A410">
+        <v>68.544439085503498</v>
+      </c>
+      <c r="B410">
+        <v>262.48933848027201</v>
+      </c>
+      <c r="C410">
+        <v>-4.9316837390022004</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A411">
+        <v>68.746979207812103</v>
+      </c>
+      <c r="B411">
+        <v>261.49077640142798</v>
+      </c>
+      <c r="C411">
+        <v>-4.9342675113169099</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A412">
+        <v>68.949519330120694</v>
+      </c>
+      <c r="B412">
+        <v>260.49203144652898</v>
+      </c>
+      <c r="C412">
+        <v>-4.9359269895726099</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A413">
+        <v>69.136759243498204</v>
+      </c>
+      <c r="B413">
+        <v>259.567721280689</v>
+      </c>
+      <c r="C413">
+        <v>-4.9332729776030799</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A414">
+        <v>69.323999156875502</v>
+      </c>
+      <c r="B414">
+        <v>258.64380670223102</v>
+      </c>
+      <c r="C414">
+        <v>-4.9320298395821496</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A415">
+        <v>69.511239070252898</v>
+      </c>
+      <c r="B415">
+        <v>257.72052075099998</v>
+      </c>
+      <c r="C415">
+        <v>-4.9331207242440902</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A416">
+        <v>69.698478983630395</v>
+      </c>
+      <c r="B416">
+        <v>256.79718551635699</v>
+      </c>
+      <c r="C416">
+        <v>-4.93384966653693</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A417">
+        <v>69.894581837726307</v>
+      </c>
+      <c r="B417">
+        <v>255.829555157252</v>
+      </c>
+      <c r="C417">
+        <v>-4.93209513279165</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A418">
+        <v>70.090684691822204</v>
+      </c>
+      <c r="B418">
+        <v>254.862200024321</v>
+      </c>
+      <c r="C418">
+        <v>-4.9312558790819603</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A419">
+        <v>70.286787545918102</v>
+      </c>
+      <c r="B419">
+        <v>253.89529876029999</v>
+      </c>
+      <c r="C419">
+        <v>-4.9320403898848797</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A420">
+        <v>70.482890400014</v>
+      </c>
+      <c r="B420">
+        <v>252.92836431461799</v>
+      </c>
+      <c r="C420">
+        <v>-4.9325126576345104</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A421">
+        <v>70.703055802871603</v>
+      </c>
+      <c r="B421">
+        <v>251.842216971358</v>
+      </c>
+      <c r="C421">
+        <v>-4.9305798366714004</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A422">
+        <v>70.923221205729106</v>
+      </c>
+      <c r="B422">
+        <v>250.75640029185999</v>
+      </c>
+      <c r="C422">
+        <v>-4.9297356237244498</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A423">
+        <v>71.143386608586695</v>
+      </c>
+      <c r="B423">
+        <v>249.67119941285301</v>
+      </c>
+      <c r="C423">
+        <v>-4.9311103204815101</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A424">
+        <v>71.363552011444298</v>
+      </c>
+      <c r="B424">
+        <v>248.58590349827699</v>
+      </c>
+      <c r="C424">
+        <v>-4.9318801083972001</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A425">
+        <v>71.595318179019102</v>
+      </c>
+      <c r="B425">
+        <v>247.44246266500099</v>
+      </c>
+      <c r="C425">
+        <v>-4.9286422229355704</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A426">
+        <v>71.827084346593793</v>
+      </c>
+      <c r="B426">
+        <v>246.299585081548</v>
+      </c>
+      <c r="C426">
+        <v>-4.9273928067502899</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A427">
+        <v>72.058850514168597</v>
+      </c>
+      <c r="B427">
+        <v>245.15783922089301</v>
+      </c>
+      <c r="C427">
+        <v>-4.9303803788620097</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A428">
+        <v>72.290616681743401</v>
+      </c>
+      <c r="B428">
+        <v>244.01583349387201</v>
+      </c>
+      <c r="C428">
+        <v>-4.9320811175863701</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A429">
+        <v>72.505175261634704</v>
+      </c>
+      <c r="B429">
+        <v>242.95718252326699</v>
+      </c>
+      <c r="C429">
+        <v>-4.92775044764669</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A430">
+        <v>72.719733841525994</v>
+      </c>
+      <c r="B430">
+        <v>241.89924135834201</v>
+      </c>
+      <c r="C430">
+        <v>-4.9260303912648302</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A431">
+        <v>72.934292421417297</v>
+      </c>
+      <c r="B431">
+        <v>240.84265650223799</v>
+      </c>
+      <c r="C431">
+        <v>-4.9294740275419198</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A432">
+        <v>73.1488510013085</v>
+      </c>
+      <c r="B432">
+        <v>239.78579425050199</v>
+      </c>
+      <c r="C432">
+        <v>-4.9315929017639402</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A433">
+        <v>73.339599268978006</v>
+      </c>
+      <c r="B433">
+        <v>238.84493018085101</v>
+      </c>
+      <c r="C433">
+        <v>-4.92819412860183</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A434">
+        <v>73.530347536647398</v>
+      </c>
+      <c r="B434">
+        <v>237.90457766702099</v>
+      </c>
+      <c r="C434">
+        <v>-4.9266646681279997</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A435">
+        <v>73.721095804316803</v>
+      </c>
+      <c r="B435">
+        <v>236.965067711366</v>
+      </c>
+      <c r="C435">
+        <v>-4.92831537098228</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A436">
+        <v>73.911844071986195</v>
+      </c>
+      <c r="B436">
+        <v>236.02546447391799</v>
+      </c>
+      <c r="C436">
+        <v>-4.9294211007604103</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A437">
+        <v>74.099362805796304</v>
+      </c>
+      <c r="B437">
+        <v>235.10102896497199</v>
+      </c>
+      <c r="C437">
+        <v>-4.9273961258568804</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A438">
+        <v>74.286881539606398</v>
+      </c>
+      <c r="B438">
+        <v>234.17689780099099</v>
+      </c>
+      <c r="C438">
+        <v>-4.9264195291180402</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A439">
+        <v>74.474400273416407</v>
+      </c>
+      <c r="B439">
+        <v>233.25324611927101</v>
+      </c>
+      <c r="C439">
+        <v>-4.9271864922759097</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A440">
+        <v>74.661919007226501</v>
+      </c>
+      <c r="B440">
+        <v>232.32956706071201</v>
+      </c>
+      <c r="C440">
+        <v>-4.9276793861503396</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A441">
+        <v>74.869991958749395</v>
+      </c>
+      <c r="B441">
+        <v>231.30413428616501</v>
+      </c>
+      <c r="C441">
+        <v>-4.92601456827341</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A442">
+        <v>75.078064910272303</v>
+      </c>
+      <c r="B442">
+        <v>230.27897600375499</v>
+      </c>
+      <c r="C442">
+        <v>-4.9252408219942101</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A443">
+        <v>75.286137861795197</v>
+      </c>
+      <c r="B443">
+        <v>229.25429854077001</v>
+      </c>
+      <c r="C443">
+        <v>-4.9261773269429803</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A444">
+        <v>75.494210813318105</v>
+      </c>
+      <c r="B444">
+        <v>228.22957042123599</v>
+      </c>
+      <c r="C444">
+        <v>-4.9267098379764303</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A445">
+        <v>75.724932640377801</v>
+      </c>
+      <c r="B445">
+        <v>227.09258410484799</v>
+      </c>
+      <c r="C445">
+        <v>-4.92422110731244</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A446">
+        <v>75.955654467437498</v>
+      </c>
+      <c r="B446">
+        <v>225.95603310990199</v>
+      </c>
+      <c r="C446">
+        <v>-4.9232168367285301</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A447">
+        <v>76.186376294497194</v>
+      </c>
+      <c r="B447">
+        <v>224.82033924949999</v>
+      </c>
+      <c r="C447">
+        <v>-4.9253693747826599</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A448">
+        <v>76.417098121556904</v>
+      </c>
+      <c r="B448">
+        <v>223.684468826613</v>
+      </c>
+      <c r="C448">
+        <v>-4.9265696350613704</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A449">
+        <v>76.643573592287495</v>
+      </c>
+      <c r="B449">
+        <v>222.56822896747599</v>
+      </c>
+      <c r="C449">
+        <v>-4.9224509898991897</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A450">
+        <v>76.870049063018101</v>
+      </c>
+      <c r="B450">
+        <v>221.452690028836</v>
+      </c>
+      <c r="C450">
+        <v>-4.9208837125966198</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A451">
+        <v>77.096524533748706</v>
+      </c>
+      <c r="B451">
+        <v>220.338555087022</v>
+      </c>
+      <c r="C451">
+        <v>-4.9246475420288096</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A452">
+        <v>77.323000004479397</v>
+      </c>
+      <c r="B452">
+        <v>219.22409208468099</v>
+      </c>
+      <c r="C452">
+        <v>-4.9268610188807802</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A453">
+        <v>77.523106782154102</v>
+      </c>
+      <c r="B453">
+        <v>218.23789682669101</v>
+      </c>
+      <c r="C453">
+        <v>-4.92270499721295</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A454">
+        <v>77.723213559828906</v>
+      </c>
+      <c r="B454">
+        <v>217.25234873625499</v>
+      </c>
+      <c r="C454">
+        <v>-4.9209442492975599</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A455">
+        <v>77.923320337503597</v>
+      </c>
+      <c r="B455">
+        <v>216.26794417051499</v>
+      </c>
+      <c r="C455">
+        <v>-4.9235429865896103</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A456">
+        <v>78.123427115178302</v>
+      </c>
+      <c r="B456">
+        <v>215.28335905922799</v>
+      </c>
+      <c r="C456">
+        <v>-4.9252297153959299</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A457">
+        <v>78.307648549264599</v>
+      </c>
+      <c r="B457">
+        <v>214.375934830267</v>
+      </c>
+      <c r="C457">
+        <v>-4.92263910553757</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A458">
+        <v>78.491869983350895</v>
+      </c>
+      <c r="B458">
+        <v>213.46889149900201</v>
+      </c>
+      <c r="C458">
+        <v>-4.9214100195740196</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A459">
+        <v>78.676091417437107</v>
+      </c>
+      <c r="B459">
+        <v>212.562441269408</v>
+      </c>
+      <c r="C459">
+        <v>-4.9223850883119002</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A460">
+        <v>78.860312851523403</v>
+      </c>
+      <c r="B460">
+        <v>211.65595209836101</v>
+      </c>
+      <c r="C460">
+        <v>-4.9230448622243896</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A461">
+        <v>79.055617721393304</v>
+      </c>
+      <c r="B461">
+        <v>210.69437714242699</v>
+      </c>
+      <c r="C461">
+        <v>-4.9213882227872299</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A462">
+        <v>79.250922591263205</v>
+      </c>
+      <c r="B462">
+        <v>209.733061585017</v>
+      </c>
+      <c r="C462">
+        <v>-4.92058814040477</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A463">
+        <v>79.446227461133105</v>
+      </c>
+      <c r="B463">
+        <v>208.772171267273</v>
+      </c>
+      <c r="C463">
+        <v>-4.9213038630387702</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A464">
+        <v>79.641532331003106</v>
+      </c>
+      <c r="B464">
+        <v>207.81125307578699</v>
+      </c>
+      <c r="C464">
+        <v>-4.9217303461721498</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A465">
+        <v>79.8637598490362</v>
+      </c>
+      <c r="B465">
+        <v>206.71732719495799</v>
+      </c>
+      <c r="C465">
+        <v>-4.9198281647168303</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A466">
+        <v>80.085987367069393</v>
+      </c>
+      <c r="B466">
+        <v>205.62372890360101</v>
+      </c>
+      <c r="C466">
+        <v>-4.9190016002126802</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A467">
+        <v>80.308214885102601</v>
+      </c>
+      <c r="B467">
+        <v>204.53074549223601</v>
+      </c>
+      <c r="C467">
+        <v>-4.9203920105720904</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A468">
+        <v>80.530442403135794</v>
+      </c>
+      <c r="B468">
+        <v>203.437664280181</v>
+      </c>
+      <c r="C468">
+        <v>-4.9211622174774599</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A469">
+        <v>80.764347962189902</v>
+      </c>
+      <c r="B469">
+        <v>202.28614230264699</v>
+      </c>
+      <c r="C469">
+        <v>-4.9177547159565904</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A470">
+        <v>80.998253521244095</v>
+      </c>
+      <c r="B470">
+        <v>201.13521513836801</v>
+      </c>
+      <c r="C470">
+        <v>-4.9164621403562103</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A471">
+        <v>81.232159080298302</v>
+      </c>
+      <c r="B471">
+        <v>199.985496182471</v>
+      </c>
+      <c r="C471">
+        <v>-4.9197152037501901</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A472">
+        <v>81.466064639352496</v>
+      </c>
+      <c r="B472">
+        <v>198.83548795230999</v>
+      </c>
+      <c r="C472">
+        <v>-4.9215578811898499</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A473">
+        <v>81.679552315629394</v>
+      </c>
+      <c r="B473">
+        <v>197.78434297210001</v>
+      </c>
+      <c r="C473">
+        <v>-4.91697446072844</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A474">
+        <v>81.893039991906207</v>
+      </c>
+      <c r="B474">
+        <v>196.733945197926</v>
+      </c>
+      <c r="C474">
+        <v>-4.9151601562114902</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A475">
+        <v>82.106527668183105</v>
+      </c>
+      <c r="B475">
+        <v>195.68497431289001</v>
+      </c>
+      <c r="C475">
+        <v>-4.9188037105420097</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A476">
+        <v>82.320015344459904</v>
+      </c>
+      <c r="B476">
+        <v>194.635709734188</v>
+      </c>
+      <c r="C476">
+        <v>-4.9210569805983804</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A477">
+        <v>82.5076435290066</v>
+      </c>
+      <c r="B477">
+        <v>193.71222665654801</v>
+      </c>
+      <c r="C477">
+        <v>-4.9176331188730904</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A478">
+        <v>82.695271713553197</v>
+      </c>
+      <c r="B478">
+        <v>192.78925163285001</v>
+      </c>
+      <c r="C478">
+        <v>-4.9160753756085098</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A479">
+        <v>82.882899898099893</v>
+      </c>
+      <c r="B479">
+        <v>191.867097302757</v>
+      </c>
+      <c r="C479">
+        <v>-4.9176247415395604</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A480">
+        <v>83.070528082646504</v>
+      </c>
+      <c r="B480">
+        <v>190.94486068965799</v>
+      </c>
+      <c r="C480">
+        <v>-4.91867814585743</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A481">
+        <v>83.255946681574301</v>
+      </c>
+      <c r="B481">
+        <v>190.032780618462</v>
+      </c>
+      <c r="C481">
+        <v>-4.9167499529212302</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A482">
+        <v>83.441365280502097</v>
+      </c>
+      <c r="B482">
+        <v>189.12098785102901</v>
+      </c>
+      <c r="C482">
+        <v>-4.9158088844381096</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A483">
+        <v>83.626783879429894</v>
+      </c>
+      <c r="B483">
+        <v>188.20964126150301</v>
+      </c>
+      <c r="C483">
+        <v>-4.9164870606443696</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A484">
+        <v>83.812202478357705</v>
+      </c>
+      <c r="B484">
+        <v>187.29827430543</v>
+      </c>
+      <c r="C484">
+        <v>-4.91692318939484</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A485">
+        <v>84.021066377514799</v>
+      </c>
+      <c r="B485">
+        <v>186.271194434709</v>
+      </c>
+      <c r="C485">
+        <v>-4.9153300359896201</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A486">
+        <v>84.229930276671894</v>
+      </c>
+      <c r="B486">
+        <v>185.24437835338</v>
+      </c>
+      <c r="C486">
+        <v>-4.9145866919150798</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A487">
+        <v>84.438794175829003</v>
+      </c>
+      <c r="B487">
+        <v>184.21802533599401</v>
+      </c>
+      <c r="C487">
+        <v>-4.91548613348857</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A488">
+        <v>84.647658074985998</v>
+      </c>
+      <c r="B488">
+        <v>183.19162429160301</v>
+      </c>
+      <c r="C488">
+        <v>-4.9159908297218502</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A489">
+        <v>84.881008600635894</v>
+      </c>
+      <c r="B489">
+        <v>182.04416972706801</v>
+      </c>
+      <c r="C489">
+        <v>-4.9134451066046401</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A490">
+        <v>85.114359126285805</v>
+      </c>
+      <c r="B490">
+        <v>180.89716301624699</v>
+      </c>
+      <c r="C490">
+        <v>-4.9124325281051098</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A491">
+        <v>85.347709651935702</v>
+      </c>
+      <c r="B491">
+        <v>179.75104758479699</v>
+      </c>
+      <c r="C491">
+        <v>-4.9147147571734697</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A492">
+        <v>85.581060177585599</v>
+      </c>
+      <c r="B492">
+        <v>178.60474030383801</v>
+      </c>
+      <c r="C492">
+        <v>-4.9159773011596704</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A493">
+        <v>85.808145917615605</v>
+      </c>
+      <c r="B493">
+        <v>177.48785606158799</v>
+      </c>
+      <c r="C493">
+        <v>-4.9115911844006597</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A494">
+        <v>86.035231657645497</v>
+      </c>
+      <c r="B494">
+        <v>176.37171787751799</v>
+      </c>
+      <c r="C494">
+        <v>-4.9099418128942398</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A495">
+        <v>86.262317397675403</v>
+      </c>
+      <c r="B495">
+        <v>175.257084328753</v>
+      </c>
+      <c r="C495">
+        <v>-4.9140333200962703</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A496">
+        <v>86.489403137705295</v>
+      </c>
+      <c r="B496">
+        <v>174.142089716843</v>
+      </c>
+      <c r="C496">
+        <v>-4.91643866194776</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A497">
+        <v>86.687032854720499</v>
+      </c>
+      <c r="B497">
+        <v>173.17016447946</v>
+      </c>
+      <c r="C497">
+        <v>-4.9121328576616303</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A498">
+        <v>86.884662571735703</v>
+      </c>
+      <c r="B498">
+        <v>172.19890247592701</v>
+      </c>
+      <c r="C498">
+        <v>-4.9102979763140597</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A499">
+        <v>87.082292288750907</v>
+      </c>
+      <c r="B499">
+        <v>171.228798683202</v>
+      </c>
+      <c r="C499">
+        <v>-4.9128967630137304</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A500">
+        <v>87.279922005766096</v>
+      </c>
+      <c r="B500">
+        <v>170.25851815622801</v>
+      </c>
+      <c r="C500">
+        <v>-4.91460176616844</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A501">
+        <v>87.461249262739202</v>
+      </c>
+      <c r="B501">
+        <v>169.36729046107601</v>
+      </c>
+      <c r="C501">
+        <v>-4.91207504783796</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A502">
+        <v>87.642576519712307</v>
+      </c>
+      <c r="B502">
+        <v>168.476429317737</v>
+      </c>
+      <c r="C502">
+        <v>-4.9108612560906399</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A503">
+        <v>87.823903776685398</v>
+      </c>
+      <c r="B503">
+        <v>167.58612754948899</v>
+      </c>
+      <c r="C503">
+        <v>-4.9117278942191902</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A504">
+        <v>88.005231033658603</v>
+      </c>
+      <c r="B504">
+        <v>166.69579622258101</v>
+      </c>
+      <c r="C504">
+        <v>-4.9123219069019104</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A505">
+        <v>88.199863646403898</v>
+      </c>
+      <c r="B505">
+        <v>165.73962472895201</v>
+      </c>
+      <c r="C505">
+        <v>-4.9107538567695803</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A506">
+        <v>88.394496259149193</v>
+      </c>
+      <c r="B506">
+        <v>164.78369844113999</v>
+      </c>
+      <c r="C506">
+        <v>-4.9099896510037802</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A507">
+        <v>88.589128871894502</v>
+      </c>
+      <c r="B507">
+        <v>163.82817204937601</v>
+      </c>
+      <c r="C507">
+        <v>-4.9106456271987797</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A508">
+        <v>88.783761484639797</v>
+      </c>
+      <c r="B508">
+        <v>162.87262230092401</v>
+      </c>
+      <c r="C508">
+        <v>-4.9110320377454899</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A509">
+        <v>89.008042864894705</v>
+      </c>
+      <c r="B509">
+        <v>161.77098360683601</v>
+      </c>
+      <c r="C509">
+        <v>-4.9091532674621199</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A510">
+        <v>89.232324245149599</v>
+      </c>
+      <c r="B510">
+        <v>160.66967052023199</v>
+      </c>
+      <c r="C510">
+        <v>-4.9083414291447198</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A511">
+        <v>89.456605625404507</v>
+      </c>
+      <c r="B511">
+        <v>159.56897321760101</v>
+      </c>
+      <c r="C511">
+        <v>-4.9097518738069903</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A512">
+        <v>89.6808870056594</v>
+      </c>
+      <c r="B512">
+        <v>158.46817496170601</v>
+      </c>
+      <c r="C512">
+        <v>-4.9105252166654996</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A513">
+        <v>89.916779617348794</v>
+      </c>
+      <c r="B513">
+        <v>157.30934487009901</v>
+      </c>
+      <c r="C513">
+        <v>-4.9069373723300798</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A514">
+        <v>90.152672229038302</v>
+      </c>
+      <c r="B514">
+        <v>156.151142895768</v>
+      </c>
+      <c r="C514">
+        <v>-4.9055986543681396</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A515">
+        <v>90.388564840727696</v>
+      </c>
+      <c r="B515">
+        <v>154.99422953237001</v>
+      </c>
+      <c r="C515">
+        <v>-4.9091312125668498</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A516">
+        <v>90.624457452417104</v>
+      </c>
+      <c r="B516">
+        <v>153.83699580330199</v>
+      </c>
+      <c r="C516">
+        <v>-4.9111228906494997</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A517">
+        <v>90.836775218080106</v>
+      </c>
+      <c r="B517">
+        <v>152.793803484671</v>
+      </c>
+      <c r="C517">
+        <v>-4.9062863506338603</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A518">
+        <v>91.049092983742995</v>
+      </c>
+      <c r="B518">
+        <v>151.75139523800701</v>
+      </c>
+      <c r="C518">
+        <v>-4.9043761796599403</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A519">
+        <v>91.261410749405897</v>
+      </c>
+      <c r="B519">
+        <v>150.71048209557699</v>
+      </c>
+      <c r="C519">
+        <v>-4.9082099722461701</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A520">
+        <v>91.473728515068899</v>
+      </c>
+      <c r="B520">
+        <v>149.66926027037101</v>
+      </c>
+      <c r="C520">
+        <v>-4.9105929995729296</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A521">
+        <v>91.658358080855393</v>
+      </c>
+      <c r="B521">
+        <v>148.76248240831799</v>
+      </c>
+      <c r="C521">
+        <v>-4.9071493264419201</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A522">
+        <v>91.842987646641902</v>
+      </c>
+      <c r="B522">
+        <v>147.85620843538999</v>
+      </c>
+      <c r="C522">
+        <v>-4.9055654799065902</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A523">
+        <v>92.027617212428396</v>
+      </c>
+      <c r="B523">
+        <v>146.950732702518</v>
+      </c>
+      <c r="C523">
+        <v>-4.9070125639590296</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A524">
+        <v>92.212246778214904</v>
+      </c>
+      <c r="B524">
+        <v>146.045185415139</v>
+      </c>
+      <c r="C524">
+        <v>-4.9080115021951496</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A525">
+        <v>92.395737799932107</v>
+      </c>
+      <c r="B525">
+        <v>145.144553073157</v>
+      </c>
+      <c r="C525">
+        <v>-4.9061717531918099</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A526">
+        <v>92.579228821649295</v>
+      </c>
+      <c r="B526">
+        <v>144.24419265931101</v>
+      </c>
+      <c r="C526">
+        <v>-4.90526387355027</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A527">
+        <v>92.762719843366497</v>
+      </c>
+      <c r="B527">
+        <v>143.34424896099799</v>
+      </c>
+      <c r="C527">
+        <v>-4.9058652814463999</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A528">
+        <v>92.946210865083799</v>
+      </c>
+      <c r="B528">
+        <v>142.44429077182301</v>
+      </c>
+      <c r="C528">
+        <v>-4.9062518705012597</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A529">
+        <v>93.155884376734306</v>
+      </c>
+      <c r="B529">
+        <v>141.41547081501</v>
+      </c>
+      <c r="C529">
+        <v>-4.9047210116330104</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A530">
+        <v>93.365557888384899</v>
+      </c>
+      <c r="B530">
+        <v>140.386905391402</v>
+      </c>
+      <c r="C530">
+        <v>-4.9040042633951302</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A531">
+        <v>93.575231400035406</v>
+      </c>
+      <c r="B531">
+        <v>139.35878778379899</v>
+      </c>
+      <c r="C531">
+        <v>-4.9048724885013</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A532">
+        <v>93.784904911685999</v>
+      </c>
+      <c r="B532">
+        <v>138.33062432665901</v>
+      </c>
+      <c r="C532">
+        <v>-4.9053534043249396</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A533">
+        <v>94.020727694158793</v>
+      </c>
+      <c r="B533">
+        <v>137.17350565874401</v>
+      </c>
+      <c r="C533">
+        <v>-4.9027453892968298</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A534">
+        <v>94.256550476631602</v>
+      </c>
+      <c r="B534">
+        <v>136.01684810372001</v>
+      </c>
+      <c r="C534">
+        <v>-4.9017226149227104</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A535">
+        <v>94.492373259104397</v>
+      </c>
+      <c r="B535">
+        <v>134.86111719794101</v>
+      </c>
+      <c r="C535">
+        <v>-4.9041383763341999</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A536">
+        <v>94.728196041577206</v>
+      </c>
+      <c r="B536">
+        <v>133.705178650747</v>
+      </c>
+      <c r="C536">
+        <v>-4.9054650675120204</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A537">
+        <v>94.955724663881</v>
+      </c>
+      <c r="B537">
+        <v>132.58846599811901</v>
+      </c>
+      <c r="C537">
+        <v>-4.9008093872265697</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A538">
+        <v>95.183253286184694</v>
+      </c>
+      <c r="B538">
+        <v>131.47254457038699</v>
+      </c>
+      <c r="C538">
+        <v>-4.8990770378012503</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A539">
+        <v>95.410781908488502</v>
+      </c>
+      <c r="B539">
+        <v>130.358228277899</v>
+      </c>
+      <c r="C539">
+        <v>-4.9034965652160896</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A540">
+        <v>95.638310530792197</v>
+      </c>
+      <c r="B540">
+        <v>129.243518018781</v>
+      </c>
+      <c r="C540">
+        <v>-4.9060942376281798</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A541">
+        <v>95.833539088885104</v>
+      </c>
+      <c r="B541">
+        <v>128.28542509137401</v>
+      </c>
+      <c r="C541">
+        <v>-4.90164726271981</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A542">
+        <v>96.028767646977997</v>
+      </c>
+      <c r="B542">
+        <v>127.328009860506</v>
+      </c>
+      <c r="C542">
+        <v>-4.8997405022730396</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A543">
+        <v>96.223996205070804</v>
+      </c>
+      <c r="B543">
+        <v>126.371763922955</v>
+      </c>
+      <c r="C543">
+        <v>-4.9023273102507501</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A544">
+        <v>96.419224763163697</v>
+      </c>
+      <c r="B544">
+        <v>125.415346050675</v>
+      </c>
+      <c r="C544">
+        <v>-4.9040423758578298</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A545">
+        <v>96.597877973034301</v>
+      </c>
+      <c r="B545">
+        <v>124.53915968803101</v>
+      </c>
+      <c r="C545">
+        <v>-4.9015760367347303</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A546">
+        <v>96.776531182904904</v>
+      </c>
+      <c r="B546">
+        <v>123.66332659952801</v>
+      </c>
+      <c r="C546">
+        <v>-4.90037755214846</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A547">
+        <v>96.955184392775493</v>
+      </c>
+      <c r="B547">
+        <v>122.788022466698</v>
+      </c>
+      <c r="C547">
+        <v>-4.9011478498191003</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A548">
+        <v>97.133837602645997</v>
+      </c>
+      <c r="B548">
+        <v>121.91269686141401</v>
+      </c>
+      <c r="C548">
+        <v>-4.90168268233763</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A549">
+        <v>97.327896790290396</v>
+      </c>
+      <c r="B549">
+        <v>120.961412551417</v>
+      </c>
+      <c r="C549">
+        <v>-4.90019150926772</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A550">
+        <v>97.521955977934795</v>
+      </c>
+      <c r="B550">
+        <v>120.01036118962899</v>
+      </c>
+      <c r="C550">
+        <v>-4.8994587775104703</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A551">
+        <v>97.716015165579094</v>
+      </c>
+      <c r="B551">
+        <v>119.05968806767299</v>
+      </c>
+      <c r="C551">
+        <v>-4.90006469301776</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A552">
+        <v>97.910074353223493</v>
+      </c>
+      <c r="B552">
+        <v>118.108995300633</v>
+      </c>
+      <c r="C552">
+        <v>-4.9004173601181202</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A553">
+        <v>98.136263658668</v>
+      </c>
+      <c r="B553">
+        <v>117.000383922116</v>
+      </c>
+      <c r="C553">
+        <v>-4.8985559455185896</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A554">
+        <v>98.362452964112506</v>
+      </c>
+      <c r="B554">
+        <v>115.892096946213</v>
+      </c>
+      <c r="C554">
+        <v>-4.8977561417664699</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A555">
+        <v>98.588642269556999</v>
+      </c>
+      <c r="B555">
+        <v>114.784427689989</v>
+      </c>
+      <c r="C555">
+        <v>-4.8991883446817104</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A556">
+        <v>98.814831575001506</v>
+      </c>
+      <c r="B556">
+        <v>113.67665423692701</v>
+      </c>
+      <c r="C556">
+        <v>-4.8999664088375097</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A557">
+        <v>99.052467999348394</v>
+      </c>
+      <c r="B557">
+        <v>112.51173196189799</v>
+      </c>
+      <c r="C557">
+        <v>-4.8961986112514104</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A558">
+        <v>99.290104423695297</v>
+      </c>
+      <c r="B558">
+        <v>111.347470785536</v>
+      </c>
+      <c r="C558">
+        <v>-4.8948138933339802</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A559">
+        <v>99.527740848042299</v>
+      </c>
+      <c r="B559">
+        <v>110.184577753036</v>
+      </c>
+      <c r="C559">
+        <v>-4.89862434085736</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A560">
+        <v>99.765377272389202</v>
+      </c>
+      <c r="B560">
+        <v>109.021333326328</v>
+      </c>
+      <c r="C560">
+        <v>-4.9007636442355098</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A561">
+        <v>99.976502279422405</v>
+      </c>
+      <c r="B561">
+        <v>107.9861677295</v>
+      </c>
+      <c r="C561">
+        <v>-4.8956861759805497</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A562">
+        <v>100.18762728645601</v>
+      </c>
+      <c r="B562">
+        <v>106.951820709177</v>
+      </c>
+      <c r="C562">
+        <v>-4.8936835666642198</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A563">
+        <v>100.398752293489</v>
+      </c>
+      <c r="B563">
+        <v>105.919031494091</v>
+      </c>
+      <c r="C563">
+        <v>-4.8976902253072501</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A564">
+        <v>100.609877300522</v>
+      </c>
+      <c r="B564">
+        <v>104.885920446387</v>
+      </c>
+      <c r="C564">
+        <v>-4.90019273959635</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A565">
+        <v>100.791748621624</v>
+      </c>
+      <c r="B565">
+        <v>103.994594280459</v>
+      </c>
+      <c r="C565">
+        <v>-4.8967335742398301</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A566">
+        <v>100.97361994272499</v>
+      </c>
+      <c r="B566">
+        <v>103.103767634048</v>
+      </c>
+      <c r="C566">
+        <v>-4.8951264699187096</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A567">
+        <v>101.155491263827</v>
+      </c>
+      <c r="B567">
+        <v>102.213717807541</v>
+      </c>
+      <c r="C567">
+        <v>-4.8964772443820497</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A568">
+        <v>101.337362584928</v>
+      </c>
+      <c r="B568">
+        <v>101.323606241235</v>
+      </c>
+      <c r="C568">
+        <v>-4.8974237154786397</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A569">
+        <v>101.519131085883</v>
+      </c>
+      <c r="B569">
+        <v>100.43336020441799</v>
+      </c>
+      <c r="C569">
+        <v>-4.8956608558925696</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A570">
+        <v>101.70089958683801</v>
+      </c>
+      <c r="B570">
+        <v>99.543372828640102</v>
+      </c>
+      <c r="C570">
+        <v>-4.8947823912117299</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A571">
+        <v>101.88266808779299</v>
+      </c>
+      <c r="B571">
+        <v>98.653777183741994</v>
+      </c>
+      <c r="C571">
+        <v>-4.8953202298602099</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A572">
+        <v>102.064436588747</v>
+      </c>
+      <c r="B572">
+        <v>97.764171765882296</v>
+      </c>
+      <c r="C572">
+        <v>-4.8956655179556803</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A573">
+        <v>102.274845313749</v>
+      </c>
+      <c r="B573">
+        <v>96.733974804796802</v>
+      </c>
+      <c r="C573">
+        <v>-4.8941870990291303</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A574">
+        <v>102.48525403875099</v>
+      </c>
+      <c r="B574">
+        <v>95.704024565780003</v>
+      </c>
+      <c r="C574">
+        <v>-4.8934928683779599</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A575">
+        <v>102.69566276375301</v>
+      </c>
+      <c r="B575">
+        <v>94.674509308780003</v>
+      </c>
+      <c r="C575">
+        <v>-4.89433532611557</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A576">
+        <v>102.90607148875399</v>
+      </c>
+      <c r="B576">
+        <v>93.644949977200795</v>
+      </c>
+      <c r="C576">
+        <v>-4.89479646591675</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A577">
+        <v>103.14407736349401</v>
+      </c>
+      <c r="B577">
+        <v>92.479616934652597</v>
+      </c>
+      <c r="C577">
+        <v>-4.8921266117020998</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A578">
+        <v>103.382083238235</v>
+      </c>
+      <c r="B578">
+        <v>91.314757848241797</v>
+      </c>
+      <c r="C578">
+        <v>-4.8910932552559103</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A579">
+        <v>103.62008911297499</v>
+      </c>
+      <c r="B579">
+        <v>90.150859309157099</v>
+      </c>
+      <c r="C579">
+        <v>-4.89363746848377</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A580">
+        <v>103.85809498771501</v>
+      </c>
+      <c r="B580">
+        <v>88.986737872555196</v>
+      </c>
+      <c r="C580">
+        <v>-4.8950257099946697</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A581">
+        <v>104.085904287433</v>
+      </c>
+      <c r="B581">
+        <v>87.870986031942294</v>
+      </c>
+      <c r="C581">
+        <v>-4.8901140755331598</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A582">
+        <v>104.31371358715</v>
+      </c>
+      <c r="B582">
+        <v>86.756067956104104</v>
+      </c>
+      <c r="C582">
+        <v>-4.8883029223376298</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A583">
+        <v>104.54152288686799</v>
+      </c>
+      <c r="B583">
+        <v>85.642849633595006</v>
+      </c>
+      <c r="C583">
+        <v>-4.8930330468358596</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A584">
+        <v>104.769332186586</v>
+      </c>
+      <c r="B584">
+        <v>84.529206328748501</v>
+      </c>
+      <c r="C584">
+        <v>-4.8958129614322399</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A585">
+        <v>104.962348639501</v>
+      </c>
+      <c r="B585">
+        <v>83.583958845104902</v>
+      </c>
+      <c r="C585">
+        <v>-4.89123853926501</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A586">
+        <v>105.15536509241601</v>
+      </c>
+      <c r="B586">
+        <v>82.639401536727505</v>
+      </c>
+      <c r="C586">
+        <v>-4.8892654547936498</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A587">
+        <v>105.34838154533099</v>
+      </c>
+      <c r="B587">
+        <v>81.696021456502507</v>
+      </c>
+      <c r="C587">
+        <v>-4.8918330217682104</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A588">
+        <v>105.541397998246</v>
+      </c>
+      <c r="B588">
+        <v>80.752474583865506</v>
+      </c>
+      <c r="C588">
+        <v>-4.8935519733923902</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A589">
+        <v>105.717671650775</v>
+      </c>
+      <c r="B589">
+        <v>79.889817628420104</v>
+      </c>
+      <c r="C589">
+        <v>-4.8911391174638901</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A590">
+        <v>105.89394530330399</v>
+      </c>
+      <c r="B590">
+        <v>79.027502302335705</v>
+      </c>
+      <c r="C590">
+        <v>-4.8899547722490802</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A591">
+        <v>106.070218955832</v>
+      </c>
+      <c r="B591">
+        <v>78.165689851916895</v>
+      </c>
+      <c r="C591">
+        <v>-4.8906437722664799</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A592">
+        <v>106.246492608361</v>
+      </c>
+      <c r="B592">
+        <v>77.303862558794606</v>
+      </c>
+      <c r="C592">
+        <v>-4.8911281752226401</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A593">
+        <v>106.440041331343</v>
+      </c>
+      <c r="B593">
+        <v>76.357127784460701</v>
+      </c>
+      <c r="C593">
+        <v>-4.8897010490841799</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A594">
+        <v>106.633590054325</v>
+      </c>
+      <c r="B594">
+        <v>75.410615739736599</v>
+      </c>
+      <c r="C594">
+        <v>-4.88899480613932</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A595">
+        <v>106.827138777307</v>
+      </c>
+      <c r="B595">
+        <v>74.464464028865805</v>
+      </c>
+      <c r="C595">
+        <v>-4.8895601850196</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A596">
+        <v>107.020687500289</v>
+      </c>
+      <c r="B596">
+        <v>73.518295620883407</v>
+      </c>
+      <c r="C596">
+        <v>-4.8898854910909</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A597">
+        <v>107.248516946143</v>
+      </c>
+      <c r="B597">
+        <v>72.404042972059997</v>
+      </c>
+      <c r="C597">
+        <v>-4.8880371172642398</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A598">
+        <v>107.476346391997</v>
+      </c>
+      <c r="B598">
+        <v>71.290113910307397</v>
+      </c>
+      <c r="C598">
+        <v>-4.8872471245708002</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A599">
+        <v>107.70417583785</v>
+      </c>
+      <c r="B599">
+        <v>70.176804644476107</v>
+      </c>
+      <c r="C599">
+        <v>-4.8887000007933299</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A600">
+        <v>107.932005283704</v>
+      </c>
+      <c r="B600">
+        <v>69.063388166008593</v>
+      </c>
+      <c r="C600">
+        <v>-4.8894831006103203</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A601">
+        <v>108.17107889430901</v>
+      </c>
+      <c r="B601">
+        <v>67.893894478304205</v>
+      </c>
+      <c r="C601">
+        <v>-4.8855478075960397</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A602">
+        <v>108.410152504915</v>
+      </c>
+      <c r="B602">
+        <v>66.725092329750197</v>
+      </c>
+      <c r="C602">
+        <v>-4.8841205681590001</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A603">
+        <v>108.64922611551999</v>
+      </c>
+      <c r="B603">
+        <v>65.557731827625503</v>
+      </c>
+      <c r="C603">
+        <v>-4.8881902254789003</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A604">
+        <v>108.88829972612599</v>
+      </c>
+      <c r="B604">
+        <v>64.389990908556101</v>
+      </c>
+      <c r="C604">
+        <v>-4.8904666713424003</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A605">
+        <v>109.098285526119</v>
+      </c>
+      <c r="B605">
+        <v>63.362555261444797</v>
+      </c>
+      <c r="C605">
+        <v>-4.8851721006538904</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A606">
+        <v>109.30827132611201</v>
+      </c>
+      <c r="B606">
+        <v>62.335968732495601</v>
+      </c>
+      <c r="C606">
+        <v>-4.88308543018079</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A607">
+        <v>109.518257126105</v>
+      </c>
+      <c r="B607">
+        <v>61.310994700929903</v>
+      </c>
+      <c r="C607">
+        <v>-4.88724228936778</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A608">
+        <v>109.728242926099</v>
+      </c>
+      <c r="B608">
+        <v>60.285687785449497</v>
+      </c>
+      <c r="C608">
+        <v>-4.88984973285464</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A609">
+        <v>109.907686050113</v>
+      </c>
+      <c r="B609">
+        <v>59.408129728368799</v>
+      </c>
+      <c r="C609">
+        <v>-4.8863781984100196</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A610">
+        <v>110.087129174127</v>
+      </c>
+      <c r="B610">
+        <v>58.531067045205504</v>
+      </c>
+      <c r="C610">
+        <v>-4.8847510770975298</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A611">
+        <v>110.26657229814199</v>
+      </c>
+      <c r="B611">
+        <v>57.654762129668001</v>
+      </c>
+      <c r="C611">
+        <v>-4.8860171407693098</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A612">
+        <v>110.44601542215599</v>
+      </c>
+      <c r="B612">
+        <v>56.778403905680698</v>
+      </c>
+      <c r="C612">
+        <v>-4.8869167273296998</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A613">
+        <v>110.626278682144</v>
+      </c>
+      <c r="B613">
+        <v>55.897429689761204</v>
+      </c>
+      <c r="C613">
+        <v>-4.8852175316720299</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A614">
+        <v>110.80654194213101</v>
+      </c>
+      <c r="B614">
+        <v>55.016703162412199</v>
+      </c>
+      <c r="C614">
+        <v>-4.8843638356769201</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A615">
+        <v>110.986805202119</v>
+      </c>
+      <c r="B615">
+        <v>54.136348000684798</v>
+      </c>
+      <c r="C615">
+        <v>-4.88485112084759</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A616">
+        <v>111.167068462106</v>
+      </c>
+      <c r="B616">
+        <v>53.255986705772699</v>
+      </c>
+      <c r="C616">
+        <v>-4.8851634463115499</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A617">
+        <v>111.378059656655</v>
+      </c>
+      <c r="B617">
+        <v>52.225156247325103</v>
+      </c>
+      <c r="C617">
+        <v>-4.8837279845382104</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A618">
+        <v>111.58905085120399</v>
+      </c>
+      <c r="B618">
+        <v>51.1945660319628</v>
+      </c>
+      <c r="C618">
+        <v>-4.8830523010673996</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A619">
+        <v>111.800042045753</v>
+      </c>
+      <c r="B619">
+        <v>50.164400126066397</v>
+      </c>
+      <c r="C619">
+        <v>-4.8838737523521196</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A620">
+        <v>112.011033240302</v>
+      </c>
+      <c r="B620">
+        <v>49.134191582313299</v>
+      </c>
+      <c r="C620">
+        <v>-4.8843188333893703</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A621">
+        <v>112.250837187038</v>
+      </c>
+      <c r="B621">
+        <v>47.962553888929598</v>
+      </c>
+      <c r="C621">
+        <v>-4.8815932653687399</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A622">
+        <v>112.49064113377401</v>
+      </c>
+      <c r="B622">
+        <v>46.791401478182799</v>
+      </c>
+      <c r="C622">
+        <v>-4.88055041744125</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A623">
+        <v>112.73044508050999</v>
+      </c>
+      <c r="B623">
+        <v>45.621239470395203</v>
+      </c>
+      <c r="C623">
+        <v>-4.8832093971098196</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A624">
+        <v>112.970249027246</v>
+      </c>
+      <c r="B624">
+        <v>44.450840874298599</v>
+      </c>
+      <c r="C624">
+        <v>-4.8846523636539896</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A625">
+        <v>113.198198047689</v>
+      </c>
+      <c r="B625">
+        <v>43.336733761432697</v>
+      </c>
+      <c r="C625">
+        <v>-4.8795126190786098</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A626">
+        <v>113.426147068132</v>
+      </c>
+      <c r="B626">
+        <v>42.223497960004401</v>
+      </c>
+      <c r="C626">
+        <v>-4.8776314653822501</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A627">
+        <v>113.65409608857399</v>
+      </c>
+      <c r="B627">
+        <v>41.112045567256999</v>
+      </c>
+      <c r="C627">
+        <v>-4.8826390260331296</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A628">
+        <v>113.882045109017</v>
+      </c>
+      <c r="B628">
+        <v>40.000140621742602</v>
+      </c>
+      <c r="C628">
+        <v>-4.8855816747583498</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A629">
+        <v>114.073121844195</v>
+      </c>
+      <c r="B629">
+        <v>39.0663523878696</v>
+      </c>
+      <c r="C629">
+        <v>-4.8808971254303204</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A630">
+        <v>114.264198579373</v>
+      </c>
+      <c r="B630">
+        <v>38.1332646510118</v>
+      </c>
+      <c r="C630">
+        <v>-4.8788659467259103</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A631">
+        <v>114.455275314551</v>
+      </c>
+      <c r="B631">
+        <v>37.201359664076797</v>
+      </c>
+      <c r="C631">
+        <v>-4.8814123428019096</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A632">
+        <v>114.646352049729</v>
+      </c>
+      <c r="B632">
+        <v>36.269292737760203</v>
+      </c>
+      <c r="C632">
+        <v>-4.8831316929212401</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A633">
+        <v>114.82058045977701</v>
+      </c>
+      <c r="B633">
+        <v>35.418468344451902</v>
+      </c>
+      <c r="C633">
+        <v>-4.8807632787553299</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A634">
+        <v>114.994808869824</v>
+      </c>
+      <c r="B634">
+        <v>34.567975879932597</v>
+      </c>
+      <c r="C634">
+        <v>-4.8795910230791302</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A635">
+        <v>115.169037279872</v>
+      </c>
+      <c r="B635">
+        <v>33.717964973724499</v>
+      </c>
+      <c r="C635">
+        <v>-4.8802146749677799</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A636">
+        <v>115.34326568991899</v>
+      </c>
+      <c r="B636">
+        <v>32.867944414207599</v>
+      </c>
+      <c r="C636">
+        <v>-4.8806582889218904</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A637">
+        <v>115.536331160014</v>
+      </c>
+      <c r="B637">
+        <v>31.925598279309298</v>
+      </c>
+      <c r="C637">
+        <v>-4.8792825808998197</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A638">
+        <v>115.72939663010899</v>
+      </c>
+      <c r="B638">
+        <v>30.983466609160399</v>
+      </c>
+      <c r="C638">
+        <v>-4.8785978180830298</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A639">
+        <v>115.922462100205</v>
+      </c>
+      <c r="B639">
+        <v>30.041680872516999</v>
+      </c>
+      <c r="C639">
+        <v>-4.8791313458605297</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A640">
+        <v>116.1155275703</v>
+      </c>
+      <c r="B640">
+        <v>29.0998807084164</v>
+      </c>
+      <c r="C640">
+        <v>-4.8794352253404902</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A641">
+        <v>116.34464850259801</v>
+      </c>
+      <c r="B641">
+        <v>27.981704530464501</v>
+      </c>
+      <c r="C641">
+        <v>-4.87759743820948</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A642">
+        <v>116.573769434895</v>
+      </c>
+      <c r="B642">
+        <v>26.863851146260401</v>
+      </c>
+      <c r="C642">
+        <v>-4.8768156066589698</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A643">
+        <v>116.802890367193</v>
+      </c>
+      <c r="B643">
+        <v>25.746618990413999</v>
+      </c>
+      <c r="C643">
+        <v>-4.8782856810549902</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A644">
+        <v>117.03201129948999</v>
+      </c>
+      <c r="B644">
+        <v>24.629277102706499</v>
+      </c>
+      <c r="C644">
+        <v>-4.8790730054257097</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A645">
+        <v>117.27218993744199</v>
+      </c>
+      <c r="B645">
+        <v>23.456849930557901</v>
+      </c>
+      <c r="C645">
+        <v>-4.8749928280023598</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A646">
+        <v>117.512368575393</v>
+      </c>
+      <c r="B646">
+        <v>22.285140352076901</v>
+      </c>
+      <c r="C646">
+        <v>-4.8735293096444803</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A647">
+        <v>117.752547213345</v>
+      </c>
+      <c r="B647">
+        <v>21.1149355911543</v>
+      </c>
+      <c r="C647">
+        <v>-4.8778250524688698</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A648">
+        <v>117.992725851296</v>
+      </c>
+      <c r="B648">
+        <v>19.9443250632428</v>
+      </c>
+      <c r="C648">
+        <v>-4.8802205517869197</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A649">
+        <v>118.201685545519</v>
+      </c>
+      <c r="B649">
+        <v>18.924036231101098</v>
+      </c>
+      <c r="C649">
+        <v>-4.8747408871112201</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A650">
+        <v>118.410645239742</v>
+      </c>
+      <c r="B650">
+        <v>17.904622056431499</v>
+      </c>
+      <c r="C650">
+        <v>-4.8725822668952503</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A651">
+        <v>118.619604933964</v>
+      </c>
+      <c r="B651">
+        <v>16.886865702168599</v>
+      </c>
+      <c r="C651">
+        <v>-4.8768646291119397</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A652">
+        <v>118.828564628187</v>
+      </c>
+      <c r="B652">
+        <v>15.8687674819439</v>
+      </c>
+      <c r="C652">
+        <v>-4.8795602972504497</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A653">
+        <v>119.005954691496</v>
+      </c>
+      <c r="B653">
+        <v>15.0030848525205</v>
+      </c>
+      <c r="C653">
+        <v>-4.8760783465978301</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A654">
+        <v>119.18334475480501</v>
+      </c>
+      <c r="B654">
+        <v>14.1378939904882</v>
+      </c>
+      <c r="C654">
+        <v>-4.8744345130360296</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A655">
+        <v>119.360734818114</v>
+      </c>
+      <c r="B655">
+        <v>13.2734450229242</v>
+      </c>
+      <c r="C655">
+        <v>-4.8756308008810398</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A656">
+        <v>119.538124881423</v>
+      </c>
+      <c r="B656">
+        <v>12.4089495673985</v>
+      </c>
+      <c r="C656">
+        <v>-4.8764914160915902</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A657">
+        <v>119.71709218012801</v>
+      </c>
+      <c r="B657">
+        <v>11.5361789696458</v>
+      </c>
+      <c r="C657">
+        <v>-4.8748425972047498</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A658">
+        <v>119.896059478833</v>
+      </c>
+      <c r="B658">
+        <v>10.663647319339001</v>
+      </c>
+      <c r="C658">
+        <v>-4.8740087937672101</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A659">
+        <v>120.075026777538</v>
+      </c>
+      <c r="B659">
+        <v>9.7914709958511494</v>
+      </c>
+      <c r="C659">
+        <v>-4.8744572882234003</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A660">
+        <v>120.253994076243</v>
+      </c>
+      <c r="B660">
+        <v>8.9192912487359504</v>
+      </c>
+      <c r="C660">
+        <v>-4.8747443313852798</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A661">
+        <v>120.465366900715</v>
+      </c>
+      <c r="B661">
+        <v>7.8888006781272502</v>
+      </c>
+      <c r="C661">
+        <v>-4.8733433763754999</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A662">
+        <v>120.67673972518701</v>
+      </c>
+      <c r="B662">
+        <v>6.8585450164001802</v>
+      </c>
+      <c r="C662">
+        <v>-4.8726826745590204</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A663">
+        <v>120.888112549659</v>
+      </c>
+      <c r="B663">
+        <v>5.8287048062798297</v>
+      </c>
+      <c r="C663">
+        <v>-4.87348704153999</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A664">
+        <v>121.09948537413101</v>
+      </c>
+      <c r="B664">
+        <v>4.7988231255367397</v>
+      </c>
+      <c r="C664">
+        <v>-4.8739193047991698</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A665">
+        <v>121.340659804493</v>
+      </c>
+      <c r="B665">
+        <v>3.6229865945378701</v>
+      </c>
+      <c r="C665">
+        <v>-4.8711483995913802</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A666">
+        <v>121.58183423485499</v>
+      </c>
+      <c r="B666">
+        <v>2.4476443568092798</v>
+      </c>
+      <c r="C666">
+        <v>-4.8700982626418297</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A667">
+        <v>121.823008665217</v>
+      </c>
+      <c r="B667">
+        <v>1.2733164985043099</v>
+      </c>
+      <c r="C667">
+        <v>-4.8728520905766901</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A668">
+        <v>122.064183095579</v>
+      </c>
+      <c r="B668">
+        <v>9.8740691307115797E-2</v>
+      </c>
+      <c r="C668">
+        <v>-4.8743399522124102</v>
       </c>
     </row>
   </sheetData>
